--- a/Template/Report Template.xlsx
+++ b/Template/Report Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelrahman.mohamed\Downloads\BRM Production report\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA884E-5A08-4DAF-A86E-A5821208A5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD82640-36A4-4E09-BEAC-8B2EC857201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
-  <si>
-    <t>Sr.No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Client Name</t>
   </si>
@@ -82,9 +79,6 @@
     <t>TPA</t>
   </si>
   <si>
-    <t>Plan</t>
-  </si>
-  <si>
     <t>Conversion Status</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Agent Email ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRM Name </t>
   </si>
   <si>
     <t>Weekly Performance</t>
@@ -147,6 +138,78 @@
   <si>
     <t>Criteria</t>
   </si>
+  <si>
+    <t>generated_by</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>trade_license_number</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Quote Creation Month</t>
+  </si>
+  <si>
+    <t>client_reference_number</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>quote_master_id</t>
+  </si>
+  <si>
+    <t>BRM</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>BASMAH Fee</t>
+  </si>
+  <si>
+    <t>ICP Fee</t>
+  </si>
+  <si>
+    <t>Product Group</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>quote_workflow_id</t>
+  </si>
+  <si>
+    <t>previous_workflow</t>
+  </si>
+  <si>
+    <t>current_workflow</t>
+  </si>
+  <si>
+    <t>generated_by_role</t>
+  </si>
+  <si>
+    <t>created_date_of_current_workflow</t>
+  </si>
+  <si>
+    <t>modified_date</t>
+  </si>
+  <si>
+    <t>Customer Accepted Date</t>
+  </si>
+  <si>
+    <t>Reinsurer Name</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +219,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +239,12 @@
       <sz val="10"/>
       <color rgb="FF002451"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -279,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,12 +377,63 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
@@ -710,11 +830,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1480"/>
+  <dimension ref="A1:AH1480"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -733,90 +851,351 @@
     <col min="13" max="13" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="U1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Z1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
@@ -5221,9 +5600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296BDD0F-6BB5-4418-9882-4A8718903251}">
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5233,13 +5610,14 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5248,19 +5626,19 @@
     </row>
     <row r="4" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5268,33 +5646,33 @@
         <v>1</v>
       </c>
       <c r="B5" t="str" cm="1">
-        <f t="array" ref="B5">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M1:M50000),1),-1),A5),"")</f>
+        <f t="array" ref="B5">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A5),"")</f>
         <v/>
       </c>
       <c r="C5" t="str">
-        <f>IF(Report!B5&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B5,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B5&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B5,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D5" t="str">
-        <f>IF(Report!B5&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B5,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B5&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B5,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E5" t="str">
-        <f>IF(Report!B5&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B5,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B5&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B5,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F5" t="str">
-        <f>IF(Report!B5&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B5,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B5&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B5,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="H5" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5302,34 +5680,34 @@
         <v>2</v>
       </c>
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M2:M50001),1),-1),A6),"")</f>
+        <f t="array" ref="B6">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P2:P50001),1),-1),A6),"")</f>
         <v/>
       </c>
       <c r="C6" t="str">
-        <f>IF(Report!B6&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B6,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B6&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B6,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D6" t="str">
-        <f>IF(Report!B6&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B6,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B6&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B6,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E6" t="str">
-        <f>IF(Report!B6&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B6,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B6&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B6,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F6" t="str">
-        <f>IF(Report!B6&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B6,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B6&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B6,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="H6" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" s="11">
         <f>J6-7</f>
         <v>-8</v>
       </c>
       <c r="J6" s="11">
-        <f>MAX('Raw Data'!I:I)-1</f>
+        <f>MAX('Raw Data'!J:J)-1</f>
         <v>-1</v>
       </c>
     </row>
@@ -5338,27 +5716,27 @@
         <v>3</v>
       </c>
       <c r="B7" t="str" cm="1">
-        <f t="array" ref="B7">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M3:M50002),1),-1),A7),"")</f>
+        <f t="array" ref="B7">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P3:P50002),1),-1),A7),"")</f>
         <v/>
       </c>
       <c r="C7" t="str">
-        <f>IF(Report!B7&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B7,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B7&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B7,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D7" t="str">
-        <f>IF(Report!B7&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B7,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B7&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B7,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E7" t="str">
-        <f>IF(Report!B7&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B7,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B7&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B7,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F7" t="str">
-        <f>IF(Report!B7&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B7,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B7&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B7,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="H7" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I7" s="11" t="e">
         <f>DATE(YEAR(J6), MONTH(J6), 1)</f>
@@ -5374,27 +5752,27 @@
         <v>4</v>
       </c>
       <c r="B8" t="str" cm="1">
-        <f t="array" ref="B8">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M4:M50003),1),-1),A8),"")</f>
+        <f t="array" ref="B8">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P4:P50003),1),-1),A8),"")</f>
         <v/>
       </c>
       <c r="C8" t="str">
-        <f>IF(Report!B8&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B8,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B8&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B8,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D8" t="str">
-        <f>IF(Report!B8&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B8,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B8&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B8,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E8" t="str">
-        <f>IF(Report!B8&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B8,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B8&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B8,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F8" t="str">
-        <f>IF(Report!B8&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B8,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B8&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B8,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="H8" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I8" s="11" t="e">
         <f>DATE(YEAR(J7),1,1)</f>
@@ -5410,23 +5788,23 @@
         <v>5</v>
       </c>
       <c r="B9" t="str" cm="1">
-        <f t="array" ref="B9">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M5:M50004),1),-1),A9),"")</f>
+        <f t="array" ref="B9">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P5:P50004),1),-1),A9),"")</f>
         <v/>
       </c>
       <c r="C9" t="str">
-        <f>IF(Report!B9&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B9,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B9&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B9,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D9" t="str">
-        <f>IF(Report!B9&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B9,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B9&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B9,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E9" t="str">
-        <f>IF(Report!B9&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B9,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B9&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B9,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F9" t="str">
-        <f>IF(Report!B9&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B9,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B9&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B9,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5435,23 +5813,23 @@
         <v>6</v>
       </c>
       <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M6:M50005),1),-1),A10),"")</f>
+        <f t="array" ref="B10">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P6:P50005),1),-1),A10),"")</f>
         <v/>
       </c>
       <c r="C10" t="str">
-        <f>IF(Report!B10&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B10,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B10&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B10,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D10" t="str">
-        <f>IF(Report!B10&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B10,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B10&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B10,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E10" t="str">
-        <f>IF(Report!B10&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B10,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B10&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B10,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F10" t="str">
-        <f>IF(Report!B10&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B10,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B10&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B10,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5460,23 +5838,23 @@
         <v>7</v>
       </c>
       <c r="B11" t="str" cm="1">
-        <f t="array" ref="B11">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M7:M50006),1),-1),A11),"")</f>
+        <f t="array" ref="B11">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P7:P50006),1),-1),A11),"")</f>
         <v/>
       </c>
       <c r="C11" t="str">
-        <f>IF(Report!B11&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B11,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B11&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B11,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D11" t="str">
-        <f>IF(Report!B11&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B11,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B11&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B11,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E11" t="str">
-        <f>IF(Report!B11&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B11,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B11&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B11,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F11" t="str">
-        <f>IF(Report!B11&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B11,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B11&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B11,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5485,23 +5863,23 @@
         <v>8</v>
       </c>
       <c r="B12" t="str" cm="1">
-        <f t="array" ref="B12">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M8:M50007),1),-1),A12),"")</f>
+        <f t="array" ref="B12">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P8:P50007),1),-1),A12),"")</f>
         <v/>
       </c>
       <c r="C12" t="str">
-        <f>IF(Report!B12&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B12,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B12&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B12,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D12" t="str">
-        <f>IF(Report!B12&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B12,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B12&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B12,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E12" t="str">
-        <f>IF(Report!B12&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B12,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B12&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B12,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F12" t="str">
-        <f>IF(Report!B12&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B12,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B12&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B12,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5510,23 +5888,23 @@
         <v>9</v>
       </c>
       <c r="B13" t="str" cm="1">
-        <f t="array" ref="B13">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M9:M50008),1),-1),A13),"")</f>
+        <f t="array" ref="B13">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P9:P50008),1),-1),A13),"")</f>
         <v/>
       </c>
       <c r="C13" t="str">
-        <f>IF(Report!B13&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B13,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B13&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B13,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D13" t="str">
-        <f>IF(Report!B13&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B13,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B13&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B13,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E13" t="str">
-        <f>IF(Report!B13&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B13,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B13&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B13,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F13" t="str">
-        <f>IF(Report!B13&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B13,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B13&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B13,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5535,23 +5913,23 @@
         <v>10</v>
       </c>
       <c r="B14" t="str" cm="1">
-        <f t="array" ref="B14">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M10:M50009),1),-1),A14),"")</f>
+        <f t="array" ref="B14">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P10:P50009),1),-1),A14),"")</f>
         <v/>
       </c>
       <c r="C14" t="str">
-        <f>IF(Report!B14&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B14,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B14&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B14,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D14" t="str">
-        <f>IF(Report!B14&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B14,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B14&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B14,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E14" t="str">
-        <f>IF(Report!B14&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B14,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B14&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B14,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F14" t="str">
-        <f>IF(Report!B14&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B14,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B14&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B14,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5560,23 +5938,23 @@
         <v>11</v>
       </c>
       <c r="B15" t="str" cm="1">
-        <f t="array" ref="B15">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M11:M50010),1),-1),A15),"")</f>
+        <f t="array" ref="B15">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P11:P50010),1),-1),A15),"")</f>
         <v/>
       </c>
       <c r="C15" t="str">
-        <f>IF(Report!B15&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B15,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B15&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B15,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D15" t="str">
-        <f>IF(Report!B15&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B15,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B15&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B15,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E15" t="str">
-        <f>IF(Report!B15&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B15,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B15&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B15,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F15" t="str">
-        <f>IF(Report!B15&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B15,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B15&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B15,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5585,23 +5963,23 @@
         <v>12</v>
       </c>
       <c r="B16" t="str" cm="1">
-        <f t="array" ref="B16">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M12:M50011),1),-1),A16),"")</f>
+        <f t="array" ref="B16">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P12:P50011),1),-1),A16),"")</f>
         <v/>
       </c>
       <c r="C16" t="str">
-        <f>IF(Report!B16&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B16,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B16&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B16,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D16" t="str">
-        <f>IF(Report!B16&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B16,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B16&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B16,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E16" t="str">
-        <f>IF(Report!B16&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B16,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B16&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B16,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F16" t="str">
-        <f>IF(Report!B16&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B16,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B16&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B16,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5610,23 +5988,23 @@
         <v>13</v>
       </c>
       <c r="B17" t="str" cm="1">
-        <f t="array" ref="B17">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M13:M50012),1),-1),A17),"")</f>
+        <f t="array" ref="B17">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P13:P50012),1),-1),A17),"")</f>
         <v/>
       </c>
       <c r="C17" t="str">
-        <f>IF(Report!B17&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B17,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B17&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B17,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f>IF(Report!B17&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B17,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B17&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B17,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E17" t="str">
-        <f>IF(Report!B17&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B17,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B17&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B17,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F17" t="str">
-        <f>IF(Report!B17&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B17,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B17&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B17,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5635,23 +6013,23 @@
         <v>14</v>
       </c>
       <c r="B18" t="str" cm="1">
-        <f t="array" ref="B18">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M14:M50013),1),-1),A18),"")</f>
+        <f t="array" ref="B18">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P14:P50013),1),-1),A18),"")</f>
         <v/>
       </c>
       <c r="C18" t="str">
-        <f>IF(Report!B18&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B18,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B18&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B18,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D18" t="str">
-        <f>IF(Report!B18&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B18,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B18&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B18,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E18" t="str">
-        <f>IF(Report!B18&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B18,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B18&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B18,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F18" t="str">
-        <f>IF(Report!B18&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B18,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B18&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B18,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5660,29 +6038,29 @@
         <v>15</v>
       </c>
       <c r="B19" t="str" cm="1">
-        <f t="array" ref="B19">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M15:M50014),1),-1),A19),"")</f>
+        <f t="array" ref="B19">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!P15:P50014),1),-1),A19),"")</f>
         <v/>
       </c>
       <c r="C19" t="str">
-        <f>IF(Report!B19&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B19,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B19&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B19,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f>IF(Report!B19&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B19,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B19&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B19,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E19" t="str">
-        <f>IF(Report!B19&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B19,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6), "")</f>
+        <f>IF(Report!B19&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B19,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6), "")</f>
         <v/>
       </c>
       <c r="F19" t="str">
-        <f>IF(Report!B19&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B19,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$6, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$6, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B19&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B19,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <f>SUM(C11:C19)</f>
@@ -5704,7 +6082,7 @@
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -5713,19 +6091,19 @@
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5733,23 +6111,23 @@
         <v>1</v>
       </c>
       <c r="B26" t="str" cm="1">
-        <f t="array" ref="B26">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M22:M50021),1),-1),A26),"")</f>
+        <f t="array" ref="B26">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A26),"")</f>
         <v/>
       </c>
       <c r="C26" t="str">
-        <f>IF(Report!B26&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B26,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B26&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B26,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D26" t="str">
-        <f>IF(Report!B26&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B26,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B26&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B26,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E26" t="str">
-        <f>IF(Report!B26&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B26,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B26&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B26,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F26" t="str">
-        <f>IF(Report!B26&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B26,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B26&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B26,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5758,23 +6136,23 @@
         <v>2</v>
       </c>
       <c r="B27" t="str" cm="1">
-        <f t="array" ref="B27">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M23:M50022),1),-1),A27),"")</f>
+        <f t="array" ref="B27">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A27),"")</f>
         <v/>
       </c>
       <c r="C27" t="str">
-        <f>IF(Report!B27&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B27,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B27&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B27,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D27" t="str">
-        <f>IF(Report!B27&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B27,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B27&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B27,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E27" t="str">
-        <f>IF(Report!B27&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B27,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B27&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B27,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F27" t="str">
-        <f>IF(Report!B27&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B27,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B27&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B27,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5783,23 +6161,23 @@
         <v>3</v>
       </c>
       <c r="B28" t="str" cm="1">
-        <f t="array" ref="B28">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M24:M50023),1),-1),A28),"")</f>
+        <f t="array" ref="B28">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A28),"")</f>
         <v/>
       </c>
       <c r="C28" t="str">
-        <f>IF(Report!B28&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B28,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B28&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B28,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D28" t="str">
-        <f>IF(Report!B28&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B28,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B28&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B28,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E28" t="str">
-        <f>IF(Report!B28&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B28,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B28&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B28,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F28" t="str">
-        <f>IF(Report!B28&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B28,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B28&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B28,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5808,23 +6186,23 @@
         <v>4</v>
       </c>
       <c r="B29" t="str" cm="1">
-        <f t="array" ref="B29">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M25:M50024),1),-1),A29),"")</f>
+        <f t="array" ref="B29">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A29),"")</f>
         <v/>
       </c>
       <c r="C29" t="str">
-        <f>IF(Report!B29&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B29,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B29&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B29,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f>IF(Report!B29&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B29,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B29&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B29,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E29" t="str">
-        <f>IF(Report!B29&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B29,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B29&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B29,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F29" t="str">
-        <f>IF(Report!B29&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B29,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B29&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B29,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5833,23 +6211,23 @@
         <v>5</v>
       </c>
       <c r="B30" t="str" cm="1">
-        <f t="array" ref="B30">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M26:M50025),1),-1),A30),"")</f>
+        <f t="array" ref="B30">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A30),"")</f>
         <v/>
       </c>
       <c r="C30" t="str">
-        <f>IF(Report!B30&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B30,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B30&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B30,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D30" t="str">
-        <f>IF(Report!B30&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B30,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B30&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B30,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E30" t="str">
-        <f>IF(Report!B30&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B30,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B30&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B30,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F30" t="str">
-        <f>IF(Report!B30&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B30,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B30&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B30,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5858,23 +6236,23 @@
         <v>6</v>
       </c>
       <c r="B31" t="str" cm="1">
-        <f t="array" ref="B31">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M27:M50026),1),-1),A31),"")</f>
+        <f t="array" ref="B31">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A31),"")</f>
         <v/>
       </c>
       <c r="C31" t="str">
-        <f>IF(Report!B31&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B31,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B31&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B31,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D31" t="str">
-        <f>IF(Report!B31&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B31,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B31&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B31,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E31" t="str">
-        <f>IF(Report!B31&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B31,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B31&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B31,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F31" t="str">
-        <f>IF(Report!B31&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B31,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B31&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B31,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5883,23 +6261,23 @@
         <v>7</v>
       </c>
       <c r="B32" t="str" cm="1">
-        <f t="array" ref="B32">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M28:M50027),1),-1),A32),"")</f>
+        <f t="array" ref="B32">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A32),"")</f>
         <v/>
       </c>
       <c r="C32" t="str">
-        <f>IF(Report!B32&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B32,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B32&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B32,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D32" t="str">
-        <f>IF(Report!B32&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B32,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B32&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B32,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E32" t="str">
-        <f>IF(Report!B32&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B32,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B32&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B32,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F32" t="str">
-        <f>IF(Report!B32&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B32,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B32&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B32,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5908,23 +6286,23 @@
         <v>8</v>
       </c>
       <c r="B33" t="str" cm="1">
-        <f t="array" ref="B33">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M29:M50028),1),-1),A33),"")</f>
+        <f t="array" ref="B33">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A33),"")</f>
         <v/>
       </c>
       <c r="C33" t="str">
-        <f>IF(Report!B33&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B33,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B33&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B33,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f>IF(Report!B33&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B33,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B33&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B33,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E33" t="str">
-        <f>IF(Report!B33&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B33,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B33&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B33,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F33" t="str">
-        <f>IF(Report!B33&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B33,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B33&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B33,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5933,23 +6311,23 @@
         <v>9</v>
       </c>
       <c r="B34" t="str" cm="1">
-        <f t="array" ref="B34">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M30:M50029),1),-1),A34),"")</f>
+        <f t="array" ref="B34">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A34),"")</f>
         <v/>
       </c>
       <c r="C34" t="str">
-        <f>IF(Report!B34&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B34,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B34&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B34,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D34" t="str">
-        <f>IF(Report!B34&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B34,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B34&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B34,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E34" t="str">
-        <f>IF(Report!B34&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B34,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B34&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B34,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F34" t="str">
-        <f>IF(Report!B34&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B34,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B34&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B34,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5958,23 +6336,23 @@
         <v>10</v>
       </c>
       <c r="B35" t="str" cm="1">
-        <f t="array" ref="B35">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M31:M50030),1),-1),A35),"")</f>
+        <f t="array" ref="B35">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A35),"")</f>
         <v/>
       </c>
       <c r="C35" t="str">
-        <f>IF(Report!B35&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B35,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B35&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B35,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D35" t="str">
-        <f>IF(Report!B35&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B35,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B35&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B35,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E35" t="str">
-        <f>IF(Report!B35&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B35,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B35&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B35,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F35" t="str">
-        <f>IF(Report!B35&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B35,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B35&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B35,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -5983,23 +6361,23 @@
         <v>11</v>
       </c>
       <c r="B36" t="str" cm="1">
-        <f t="array" ref="B36">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M32:M50031),1),-1),A36),"")</f>
+        <f t="array" ref="B36">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A36),"")</f>
         <v/>
       </c>
       <c r="C36" t="str">
-        <f>IF(Report!B36&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B36,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B36&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B36,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f>IF(Report!B36&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B36,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B36&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B36,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E36" t="str">
-        <f>IF(Report!B36&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B36,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B36&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B36,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F36" t="str">
-        <f>IF(Report!B36&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B36,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B36&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B36,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6008,23 +6386,23 @@
         <v>12</v>
       </c>
       <c r="B37" t="str" cm="1">
-        <f t="array" ref="B37">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M33:M50032),1),-1),A37),"")</f>
+        <f t="array" ref="B37">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A37),"")</f>
         <v/>
       </c>
       <c r="C37" t="str">
-        <f>IF(Report!B37&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B37,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B37&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B37,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D37" t="str">
-        <f>IF(Report!B37&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B37,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B37&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B37,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E37" t="str">
-        <f>IF(Report!B37&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B37,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B37&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B37,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F37" t="str">
-        <f>IF(Report!B37&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B37,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B37&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B37,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6033,23 +6411,23 @@
         <v>13</v>
       </c>
       <c r="B38" t="str" cm="1">
-        <f t="array" ref="B38">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M34:M50033),1),-1),A38),"")</f>
+        <f t="array" ref="B38">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A38),"")</f>
         <v/>
       </c>
       <c r="C38" t="str">
-        <f>IF(Report!B38&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B38,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B38&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B38,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D38" t="str">
-        <f>IF(Report!B38&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B38,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B38&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B38,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E38" t="str">
-        <f>IF(Report!B38&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B38,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B38&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B38,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F38" t="str">
-        <f>IF(Report!B38&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B38,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B38&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B38,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6058,23 +6436,23 @@
         <v>14</v>
       </c>
       <c r="B39" t="str" cm="1">
-        <f t="array" ref="B39">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M35:M50034),1),-1),A39),"")</f>
+        <f t="array" ref="B39">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A39),"")</f>
         <v/>
       </c>
       <c r="C39" t="str">
-        <f>IF(Report!B39&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B39,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B39&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B39,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D39" t="str">
-        <f>IF(Report!B39&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B39,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B39&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B39,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E39" t="str">
-        <f>IF(Report!B39&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B39,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B39&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B39,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F39" t="str">
-        <f>IF(Report!B39&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B39,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B39&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B39,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6083,29 +6461,29 @@
         <v>15</v>
       </c>
       <c r="B40" t="str" cm="1">
-        <f t="array" ref="B40">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M36:M50035),1),-1),A40),"")</f>
+        <f t="array" ref="B40">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A40),"")</f>
         <v/>
       </c>
       <c r="C40" t="str">
-        <f>IF(Report!B40&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B40,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B40&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B40,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="D40" t="str">
-        <f>IF(Report!B40&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B40,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B40&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B40,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E40" t="str">
-        <f>IF(Report!B40&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B40,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7), "")</f>
+        <f>IF(Report!B40&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B40,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7), "")</f>
         <v/>
       </c>
       <c r="F40" t="str">
-        <f>IF(Report!B40&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B40,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$7, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$7, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B40&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B40,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$7, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$7, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C41" s="7">
         <f>SUM(C32:C40)</f>
@@ -6127,7 +6505,7 @@
     <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -6136,19 +6514,19 @@
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="F46" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6156,23 +6534,23 @@
         <v>1</v>
       </c>
       <c r="B47" t="str" cm="1">
-        <f t="array" ref="B47">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M43:M50042),1),-1),A47),"")</f>
+        <f t="array" ref="B47">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A47),"")</f>
         <v/>
       </c>
       <c r="C47" t="str">
-        <f>IF(Report!B47&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B47,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B47&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B47,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D47" t="str">
-        <f>IF(Report!B47&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B47,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B47&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B47,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E47" t="str">
-        <f>IF(Report!B47&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B47,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B47&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B47,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F47" t="str">
-        <f>IF(Report!B47&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B47,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B47&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B47,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6528,7 +6906,7 @@
     </row>
     <row r="62" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C62" s="7">
         <f>SUM(C53:C61)</f>
@@ -6549,7 +6927,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:F19">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F40">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:F61">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6558,17 +6946,17 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:F61">
+  <conditionalFormatting sqref="B26:B40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B40">
+  <conditionalFormatting sqref="C47:F47">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B47:B61">
+  <conditionalFormatting sqref="B47">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>

--- a/Template/Report Template.xlsx
+++ b/Template/Report Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelrahman.mohamed\Downloads\BRM Production report\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD82640-36A4-4E09-BEAC-8B2EC857201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4733B2-F805-4F0F-87C0-406D1A4FDC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,9 +371,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -385,103 +382,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <fill>
@@ -832,7 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1480"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -852,4743 +755,4743 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="9"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I20" s="9"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="9"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="9"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="9"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="9"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="9"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="9"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="9"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I28" s="9"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I29" s="9"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I30" s="9"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I31" s="9"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I32" s="9"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I33" s="9"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="9"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I35" s="9"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="9"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="9"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I38" s="9"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I39" s="9"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I40" s="9"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I41" s="9"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="9"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I43" s="9"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I44" s="9"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I45" s="9"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I46" s="9"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I47" s="9"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I48" s="9"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I49" s="9"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I50" s="9"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I51" s="9"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I52" s="9"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I53" s="9"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I54" s="9"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I55" s="9"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I56" s="9"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I57" s="9"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I58" s="9"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I59" s="9"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I60" s="9"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I61" s="9"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I62" s="9"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I63" s="9"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I64" s="9"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I65" s="9"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I66" s="9"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I67" s="9"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I68" s="9"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I69" s="9"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I70" s="9"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I71" s="9"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I72" s="9"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I73" s="9"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I74" s="9"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I75" s="9"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="9"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I77" s="9"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I78" s="9"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I79" s="9"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I80" s="9"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I81" s="9"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I82" s="9"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I83" s="9"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I84" s="9"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I85" s="9"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I86" s="9"/>
+      <c r="I86" s="8"/>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I87" s="9"/>
+      <c r="I87" s="8"/>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I88" s="9"/>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I89" s="9"/>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I90" s="9"/>
+      <c r="I90" s="8"/>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I91" s="9"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I92" s="9"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I93" s="9"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I94" s="9"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I95" s="9"/>
+      <c r="I95" s="8"/>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I96" s="9"/>
+      <c r="I96" s="8"/>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I97" s="9"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I98" s="9"/>
+      <c r="I98" s="8"/>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I99" s="9"/>
+      <c r="I99" s="8"/>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I100" s="9"/>
+      <c r="I100" s="8"/>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I101" s="9"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I102" s="9"/>
+      <c r="I102" s="8"/>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I103" s="9"/>
+      <c r="I103" s="8"/>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I104" s="9"/>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I105" s="9"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I106" s="9"/>
+      <c r="I106" s="8"/>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I107" s="9"/>
+      <c r="I107" s="8"/>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I108" s="9"/>
+      <c r="I108" s="8"/>
     </row>
     <row r="109" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I109" s="9"/>
+      <c r="I109" s="8"/>
     </row>
     <row r="110" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I110" s="9"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I111" s="9"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I112" s="9"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I113" s="9"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I114" s="9"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I115" s="9"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I116" s="9"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I117" s="9"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I118" s="9"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I119" s="9"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I120" s="9"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I121" s="9"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I122" s="9"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I123" s="9"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I124" s="9"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I125" s="9"/>
+      <c r="I125" s="8"/>
     </row>
     <row r="126" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I126" s="9"/>
+      <c r="I126" s="8"/>
     </row>
     <row r="127" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I127" s="9"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I128" s="9"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I129" s="9"/>
+      <c r="I129" s="8"/>
     </row>
     <row r="130" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I130" s="9"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I131" s="9"/>
+      <c r="I131" s="8"/>
     </row>
     <row r="132" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I132" s="9"/>
+      <c r="I132" s="8"/>
     </row>
     <row r="133" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I133" s="9"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I134" s="9"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I135" s="9"/>
+      <c r="I135" s="8"/>
     </row>
     <row r="136" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I136" s="9"/>
+      <c r="I136" s="8"/>
     </row>
     <row r="137" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I137" s="9"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I138" s="9"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I139" s="9"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I140" s="9"/>
+      <c r="I140" s="8"/>
     </row>
     <row r="141" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I141" s="9"/>
+      <c r="I141" s="8"/>
     </row>
     <row r="142" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I142" s="9"/>
+      <c r="I142" s="8"/>
     </row>
     <row r="143" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I143" s="9"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="144" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I144" s="9"/>
+      <c r="I144" s="8"/>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I145" s="9"/>
+      <c r="I145" s="8"/>
     </row>
     <row r="146" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I146" s="9"/>
+      <c r="I146" s="8"/>
     </row>
     <row r="147" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I147" s="9"/>
+      <c r="I147" s="8"/>
     </row>
     <row r="148" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I148" s="9"/>
+      <c r="I148" s="8"/>
     </row>
     <row r="149" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I149" s="9"/>
+      <c r="I149" s="8"/>
     </row>
     <row r="150" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I150" s="9"/>
+      <c r="I150" s="8"/>
     </row>
     <row r="151" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I151" s="9"/>
+      <c r="I151" s="8"/>
     </row>
     <row r="152" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I152" s="9"/>
+      <c r="I152" s="8"/>
     </row>
     <row r="153" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I153" s="9"/>
+      <c r="I153" s="8"/>
     </row>
     <row r="154" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I154" s="9"/>
+      <c r="I154" s="8"/>
     </row>
     <row r="155" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I155" s="9"/>
+      <c r="I155" s="8"/>
     </row>
     <row r="156" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I156" s="9"/>
+      <c r="I156" s="8"/>
     </row>
     <row r="157" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I157" s="9"/>
+      <c r="I157" s="8"/>
     </row>
     <row r="158" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I158" s="9"/>
+      <c r="I158" s="8"/>
     </row>
     <row r="159" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I159" s="9"/>
+      <c r="I159" s="8"/>
     </row>
     <row r="160" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I160" s="9"/>
+      <c r="I160" s="8"/>
     </row>
     <row r="161" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I161" s="9"/>
+      <c r="I161" s="8"/>
     </row>
     <row r="162" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I162" s="9"/>
+      <c r="I162" s="8"/>
     </row>
     <row r="163" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I163" s="9"/>
+      <c r="I163" s="8"/>
     </row>
     <row r="164" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I164" s="9"/>
+      <c r="I164" s="8"/>
     </row>
     <row r="165" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I165" s="9"/>
+      <c r="I165" s="8"/>
     </row>
     <row r="166" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I166" s="9"/>
+      <c r="I166" s="8"/>
     </row>
     <row r="167" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I167" s="9"/>
+      <c r="I167" s="8"/>
     </row>
     <row r="168" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I168" s="9"/>
+      <c r="I168" s="8"/>
     </row>
     <row r="169" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I169" s="9"/>
+      <c r="I169" s="8"/>
     </row>
     <row r="170" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I170" s="9"/>
+      <c r="I170" s="8"/>
     </row>
     <row r="171" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I171" s="9"/>
+      <c r="I171" s="8"/>
     </row>
     <row r="172" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I172" s="9"/>
+      <c r="I172" s="8"/>
     </row>
     <row r="173" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I173" s="9"/>
+      <c r="I173" s="8"/>
     </row>
     <row r="174" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I174" s="9"/>
+      <c r="I174" s="8"/>
     </row>
     <row r="175" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I175" s="9"/>
+      <c r="I175" s="8"/>
     </row>
     <row r="176" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I176" s="9"/>
+      <c r="I176" s="8"/>
     </row>
     <row r="177" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I177" s="9"/>
+      <c r="I177" s="8"/>
     </row>
     <row r="178" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I178" s="9"/>
+      <c r="I178" s="8"/>
     </row>
     <row r="179" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I179" s="9"/>
+      <c r="I179" s="8"/>
     </row>
     <row r="180" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I180" s="9"/>
+      <c r="I180" s="8"/>
     </row>
     <row r="181" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I181" s="9"/>
+      <c r="I181" s="8"/>
     </row>
     <row r="182" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I182" s="9"/>
+      <c r="I182" s="8"/>
     </row>
     <row r="183" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I183" s="9"/>
+      <c r="I183" s="8"/>
     </row>
     <row r="184" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I184" s="9"/>
+      <c r="I184" s="8"/>
     </row>
     <row r="185" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I185" s="9"/>
+      <c r="I185" s="8"/>
     </row>
     <row r="186" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I186" s="9"/>
+      <c r="I186" s="8"/>
     </row>
     <row r="187" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I187" s="9"/>
+      <c r="I187" s="8"/>
     </row>
     <row r="188" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I188" s="9"/>
+      <c r="I188" s="8"/>
     </row>
     <row r="189" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I189" s="9"/>
+      <c r="I189" s="8"/>
     </row>
     <row r="190" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I190" s="9"/>
+      <c r="I190" s="8"/>
     </row>
     <row r="191" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I191" s="9"/>
+      <c r="I191" s="8"/>
     </row>
     <row r="192" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I192" s="9"/>
+      <c r="I192" s="8"/>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I193" s="9"/>
+      <c r="I193" s="8"/>
     </row>
     <row r="194" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I194" s="9"/>
+      <c r="I194" s="8"/>
     </row>
     <row r="195" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I195" s="9"/>
+      <c r="I195" s="8"/>
     </row>
     <row r="196" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I196" s="9"/>
+      <c r="I196" s="8"/>
     </row>
     <row r="197" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I197" s="9"/>
+      <c r="I197" s="8"/>
     </row>
     <row r="198" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I198" s="9"/>
+      <c r="I198" s="8"/>
     </row>
     <row r="199" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I199" s="9"/>
+      <c r="I199" s="8"/>
     </row>
     <row r="200" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I200" s="9"/>
+      <c r="I200" s="8"/>
     </row>
     <row r="201" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I201" s="9"/>
+      <c r="I201" s="8"/>
     </row>
     <row r="202" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I202" s="9"/>
+      <c r="I202" s="8"/>
     </row>
     <row r="203" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I203" s="9"/>
+      <c r="I203" s="8"/>
     </row>
     <row r="204" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I204" s="9"/>
+      <c r="I204" s="8"/>
     </row>
     <row r="205" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I205" s="9"/>
+      <c r="I205" s="8"/>
     </row>
     <row r="206" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I206" s="9"/>
+      <c r="I206" s="8"/>
     </row>
     <row r="207" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I207" s="9"/>
+      <c r="I207" s="8"/>
     </row>
     <row r="208" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I208" s="9"/>
+      <c r="I208" s="8"/>
     </row>
     <row r="209" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I209" s="9"/>
+      <c r="I209" s="8"/>
     </row>
     <row r="210" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I210" s="9"/>
+      <c r="I210" s="8"/>
     </row>
     <row r="211" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I211" s="9"/>
+      <c r="I211" s="8"/>
     </row>
     <row r="212" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I212" s="9"/>
+      <c r="I212" s="8"/>
     </row>
     <row r="213" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I213" s="9"/>
+      <c r="I213" s="8"/>
     </row>
     <row r="214" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I214" s="9"/>
+      <c r="I214" s="8"/>
     </row>
     <row r="215" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I215" s="9"/>
+      <c r="I215" s="8"/>
     </row>
     <row r="216" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I216" s="9"/>
+      <c r="I216" s="8"/>
     </row>
     <row r="217" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I217" s="9"/>
+      <c r="I217" s="8"/>
     </row>
     <row r="218" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I218" s="9"/>
+      <c r="I218" s="8"/>
     </row>
     <row r="219" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I219" s="9"/>
+      <c r="I219" s="8"/>
     </row>
     <row r="220" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I220" s="9"/>
+      <c r="I220" s="8"/>
     </row>
     <row r="221" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I221" s="9"/>
+      <c r="I221" s="8"/>
     </row>
     <row r="222" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I222" s="9"/>
+      <c r="I222" s="8"/>
     </row>
     <row r="223" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I223" s="9"/>
+      <c r="I223" s="8"/>
     </row>
     <row r="224" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I224" s="9"/>
+      <c r="I224" s="8"/>
     </row>
     <row r="225" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I225" s="9"/>
+      <c r="I225" s="8"/>
     </row>
     <row r="226" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I226" s="9"/>
+      <c r="I226" s="8"/>
     </row>
     <row r="227" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I227" s="9"/>
+      <c r="I227" s="8"/>
     </row>
     <row r="228" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I228" s="9"/>
+      <c r="I228" s="8"/>
     </row>
     <row r="229" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I229" s="9"/>
+      <c r="I229" s="8"/>
     </row>
     <row r="230" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I230" s="9"/>
+      <c r="I230" s="8"/>
     </row>
     <row r="231" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I231" s="9"/>
+      <c r="I231" s="8"/>
     </row>
     <row r="232" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I232" s="9"/>
+      <c r="I232" s="8"/>
     </row>
     <row r="233" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I233" s="9"/>
+      <c r="I233" s="8"/>
     </row>
     <row r="234" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I234" s="9"/>
+      <c r="I234" s="8"/>
     </row>
     <row r="235" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I235" s="9"/>
+      <c r="I235" s="8"/>
     </row>
     <row r="236" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I236" s="9"/>
+      <c r="I236" s="8"/>
     </row>
     <row r="237" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I237" s="9"/>
+      <c r="I237" s="8"/>
     </row>
     <row r="238" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I238" s="9"/>
+      <c r="I238" s="8"/>
     </row>
     <row r="239" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I239" s="9"/>
+      <c r="I239" s="8"/>
     </row>
     <row r="240" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I240" s="9"/>
+      <c r="I240" s="8"/>
     </row>
     <row r="241" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I241" s="9"/>
+      <c r="I241" s="8"/>
     </row>
     <row r="242" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I242" s="9"/>
+      <c r="I242" s="8"/>
     </row>
     <row r="243" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I243" s="9"/>
+      <c r="I243" s="8"/>
     </row>
     <row r="244" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I244" s="9"/>
+      <c r="I244" s="8"/>
     </row>
     <row r="245" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I245" s="9"/>
+      <c r="I245" s="8"/>
     </row>
     <row r="246" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I246" s="9"/>
+      <c r="I246" s="8"/>
     </row>
     <row r="247" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I247" s="9"/>
+      <c r="I247" s="8"/>
     </row>
     <row r="248" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I248" s="9"/>
+      <c r="I248" s="8"/>
     </row>
     <row r="249" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I249" s="9"/>
+      <c r="I249" s="8"/>
     </row>
     <row r="250" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I250" s="9"/>
+      <c r="I250" s="8"/>
     </row>
     <row r="251" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I251" s="9"/>
+      <c r="I251" s="8"/>
     </row>
     <row r="252" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I252" s="9"/>
+      <c r="I252" s="8"/>
     </row>
     <row r="253" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I253" s="9"/>
+      <c r="I253" s="8"/>
     </row>
     <row r="254" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I254" s="9"/>
+      <c r="I254" s="8"/>
     </row>
     <row r="255" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I255" s="9"/>
+      <c r="I255" s="8"/>
     </row>
     <row r="256" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I256" s="9"/>
+      <c r="I256" s="8"/>
     </row>
     <row r="257" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I257" s="9"/>
+      <c r="I257" s="8"/>
     </row>
     <row r="258" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I258" s="9"/>
+      <c r="I258" s="8"/>
     </row>
     <row r="259" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I259" s="9"/>
+      <c r="I259" s="8"/>
     </row>
     <row r="260" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I260" s="9"/>
+      <c r="I260" s="8"/>
     </row>
     <row r="261" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I261" s="9"/>
+      <c r="I261" s="8"/>
     </row>
     <row r="262" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I262" s="9"/>
+      <c r="I262" s="8"/>
     </row>
     <row r="263" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I263" s="9"/>
+      <c r="I263" s="8"/>
     </row>
     <row r="264" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I264" s="9"/>
+      <c r="I264" s="8"/>
     </row>
     <row r="265" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I265" s="9"/>
+      <c r="I265" s="8"/>
     </row>
     <row r="266" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I266" s="9"/>
+      <c r="I266" s="8"/>
     </row>
     <row r="267" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I267" s="9"/>
+      <c r="I267" s="8"/>
     </row>
     <row r="268" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I268" s="9"/>
+      <c r="I268" s="8"/>
     </row>
     <row r="269" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I269" s="9"/>
+      <c r="I269" s="8"/>
     </row>
     <row r="270" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I270" s="9"/>
+      <c r="I270" s="8"/>
     </row>
     <row r="271" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I271" s="9"/>
+      <c r="I271" s="8"/>
     </row>
     <row r="272" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I272" s="9"/>
+      <c r="I272" s="8"/>
     </row>
     <row r="273" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I273" s="9"/>
+      <c r="I273" s="8"/>
     </row>
     <row r="274" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I274" s="9"/>
+      <c r="I274" s="8"/>
     </row>
     <row r="275" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I275" s="9"/>
+      <c r="I275" s="8"/>
     </row>
     <row r="276" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I276" s="9"/>
+      <c r="I276" s="8"/>
     </row>
     <row r="277" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I277" s="9"/>
+      <c r="I277" s="8"/>
     </row>
     <row r="278" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I278" s="9"/>
+      <c r="I278" s="8"/>
     </row>
     <row r="279" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I279" s="9"/>
+      <c r="I279" s="8"/>
     </row>
     <row r="280" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I280" s="9"/>
+      <c r="I280" s="8"/>
     </row>
     <row r="281" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I281" s="9"/>
+      <c r="I281" s="8"/>
     </row>
     <row r="282" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I282" s="9"/>
+      <c r="I282" s="8"/>
     </row>
     <row r="283" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I283" s="9"/>
+      <c r="I283" s="8"/>
     </row>
     <row r="284" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I284" s="9"/>
+      <c r="I284" s="8"/>
     </row>
     <row r="285" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I285" s="9"/>
+      <c r="I285" s="8"/>
     </row>
     <row r="286" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I286" s="9"/>
+      <c r="I286" s="8"/>
     </row>
     <row r="287" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I287" s="9"/>
+      <c r="I287" s="8"/>
     </row>
     <row r="288" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I288" s="9"/>
+      <c r="I288" s="8"/>
     </row>
     <row r="289" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I289" s="9"/>
+      <c r="I289" s="8"/>
     </row>
     <row r="290" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I290" s="9"/>
+      <c r="I290" s="8"/>
     </row>
     <row r="291" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I291" s="9"/>
+      <c r="I291" s="8"/>
     </row>
     <row r="292" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I292" s="9"/>
+      <c r="I292" s="8"/>
     </row>
     <row r="293" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I293" s="9"/>
+      <c r="I293" s="8"/>
     </row>
     <row r="294" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I294" s="9"/>
+      <c r="I294" s="8"/>
     </row>
     <row r="295" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I295" s="9"/>
+      <c r="I295" s="8"/>
     </row>
     <row r="296" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I296" s="9"/>
+      <c r="I296" s="8"/>
     </row>
     <row r="297" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I297" s="9"/>
+      <c r="I297" s="8"/>
     </row>
     <row r="298" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I298" s="9"/>
+      <c r="I298" s="8"/>
     </row>
     <row r="299" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I299" s="9"/>
+      <c r="I299" s="8"/>
     </row>
     <row r="300" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I300" s="9"/>
+      <c r="I300" s="8"/>
     </row>
     <row r="301" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I301" s="9"/>
+      <c r="I301" s="8"/>
     </row>
     <row r="302" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I302" s="9"/>
+      <c r="I302" s="8"/>
     </row>
     <row r="303" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I303" s="9"/>
+      <c r="I303" s="8"/>
     </row>
     <row r="304" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I304" s="9"/>
+      <c r="I304" s="8"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I305" s="9"/>
+      <c r="I305" s="8"/>
     </row>
     <row r="306" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I306" s="9"/>
+      <c r="I306" s="8"/>
     </row>
     <row r="307" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I307" s="9"/>
+      <c r="I307" s="8"/>
     </row>
     <row r="308" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I308" s="9"/>
+      <c r="I308" s="8"/>
     </row>
     <row r="309" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I309" s="9"/>
+      <c r="I309" s="8"/>
     </row>
     <row r="310" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I310" s="9"/>
+      <c r="I310" s="8"/>
     </row>
     <row r="311" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I311" s="9"/>
+      <c r="I311" s="8"/>
     </row>
     <row r="312" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I312" s="9"/>
+      <c r="I312" s="8"/>
     </row>
     <row r="313" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I313" s="9"/>
+      <c r="I313" s="8"/>
     </row>
     <row r="314" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I314" s="9"/>
+      <c r="I314" s="8"/>
     </row>
     <row r="315" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I315" s="9"/>
+      <c r="I315" s="8"/>
     </row>
     <row r="316" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I316" s="9"/>
+      <c r="I316" s="8"/>
     </row>
     <row r="317" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I317" s="9"/>
+      <c r="I317" s="8"/>
     </row>
     <row r="318" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I318" s="9"/>
+      <c r="I318" s="8"/>
     </row>
     <row r="319" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I319" s="9"/>
+      <c r="I319" s="8"/>
     </row>
     <row r="320" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I320" s="9"/>
+      <c r="I320" s="8"/>
     </row>
     <row r="321" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I321" s="9"/>
+      <c r="I321" s="8"/>
     </row>
     <row r="322" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I322" s="9"/>
+      <c r="I322" s="8"/>
     </row>
     <row r="323" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I323" s="9"/>
+      <c r="I323" s="8"/>
     </row>
     <row r="324" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I324" s="9"/>
+      <c r="I324" s="8"/>
     </row>
     <row r="325" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I325" s="9"/>
+      <c r="I325" s="8"/>
     </row>
     <row r="326" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I326" s="9"/>
+      <c r="I326" s="8"/>
     </row>
     <row r="327" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I327" s="9"/>
+      <c r="I327" s="8"/>
     </row>
     <row r="328" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I328" s="9"/>
+      <c r="I328" s="8"/>
     </row>
     <row r="329" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I329" s="9"/>
+      <c r="I329" s="8"/>
     </row>
     <row r="330" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I330" s="9"/>
+      <c r="I330" s="8"/>
     </row>
     <row r="331" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I331" s="9"/>
+      <c r="I331" s="8"/>
     </row>
     <row r="332" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I332" s="9"/>
+      <c r="I332" s="8"/>
     </row>
     <row r="333" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I333" s="9"/>
+      <c r="I333" s="8"/>
     </row>
     <row r="334" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I334" s="9"/>
+      <c r="I334" s="8"/>
     </row>
     <row r="335" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I335" s="9"/>
+      <c r="I335" s="8"/>
     </row>
     <row r="336" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I336" s="9"/>
+      <c r="I336" s="8"/>
     </row>
     <row r="337" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I337" s="9"/>
+      <c r="I337" s="8"/>
     </row>
     <row r="338" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I338" s="9"/>
+      <c r="I338" s="8"/>
     </row>
     <row r="339" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I339" s="9"/>
+      <c r="I339" s="8"/>
     </row>
     <row r="340" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I340" s="9"/>
+      <c r="I340" s="8"/>
     </row>
     <row r="341" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I341" s="9"/>
+      <c r="I341" s="8"/>
     </row>
     <row r="342" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I342" s="9"/>
+      <c r="I342" s="8"/>
     </row>
     <row r="343" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I343" s="9"/>
+      <c r="I343" s="8"/>
     </row>
     <row r="344" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I344" s="9"/>
+      <c r="I344" s="8"/>
     </row>
     <row r="345" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I345" s="9"/>
+      <c r="I345" s="8"/>
     </row>
     <row r="346" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I346" s="9"/>
+      <c r="I346" s="8"/>
     </row>
     <row r="347" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I347" s="9"/>
+      <c r="I347" s="8"/>
     </row>
     <row r="348" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I348" s="9"/>
+      <c r="I348" s="8"/>
     </row>
     <row r="349" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I349" s="9"/>
+      <c r="I349" s="8"/>
     </row>
     <row r="350" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I350" s="9"/>
+      <c r="I350" s="8"/>
     </row>
     <row r="351" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I351" s="9"/>
+      <c r="I351" s="8"/>
     </row>
     <row r="352" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I352" s="9"/>
+      <c r="I352" s="8"/>
     </row>
     <row r="353" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I353" s="9"/>
+      <c r="I353" s="8"/>
     </row>
     <row r="354" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I354" s="9"/>
+      <c r="I354" s="8"/>
     </row>
     <row r="355" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I355" s="9"/>
+      <c r="I355" s="8"/>
     </row>
     <row r="356" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I356" s="9"/>
+      <c r="I356" s="8"/>
     </row>
     <row r="357" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I357" s="9"/>
+      <c r="I357" s="8"/>
     </row>
     <row r="358" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I358" s="9"/>
+      <c r="I358" s="8"/>
     </row>
     <row r="359" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I359" s="9"/>
+      <c r="I359" s="8"/>
     </row>
     <row r="360" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I360" s="9"/>
+      <c r="I360" s="8"/>
     </row>
     <row r="361" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I361" s="9"/>
+      <c r="I361" s="8"/>
     </row>
     <row r="362" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I362" s="9"/>
+      <c r="I362" s="8"/>
     </row>
     <row r="363" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I363" s="9"/>
+      <c r="I363" s="8"/>
     </row>
     <row r="364" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I364" s="9"/>
+      <c r="I364" s="8"/>
     </row>
     <row r="365" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I365" s="9"/>
+      <c r="I365" s="8"/>
     </row>
     <row r="366" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I366" s="9"/>
+      <c r="I366" s="8"/>
     </row>
     <row r="367" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I367" s="9"/>
+      <c r="I367" s="8"/>
     </row>
     <row r="368" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I368" s="9"/>
+      <c r="I368" s="8"/>
     </row>
     <row r="369" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I369" s="9"/>
+      <c r="I369" s="8"/>
     </row>
     <row r="370" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I370" s="9"/>
+      <c r="I370" s="8"/>
     </row>
     <row r="371" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I371" s="9"/>
+      <c r="I371" s="8"/>
     </row>
     <row r="372" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I372" s="9"/>
+      <c r="I372" s="8"/>
     </row>
     <row r="373" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I373" s="9"/>
+      <c r="I373" s="8"/>
     </row>
     <row r="374" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I374" s="9"/>
+      <c r="I374" s="8"/>
     </row>
     <row r="375" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I375" s="9"/>
+      <c r="I375" s="8"/>
     </row>
     <row r="376" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I376" s="9"/>
+      <c r="I376" s="8"/>
     </row>
     <row r="377" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I377" s="9"/>
+      <c r="I377" s="8"/>
     </row>
     <row r="378" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I378" s="9"/>
+      <c r="I378" s="8"/>
     </row>
     <row r="379" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I379" s="9"/>
+      <c r="I379" s="8"/>
     </row>
     <row r="380" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I380" s="9"/>
+      <c r="I380" s="8"/>
     </row>
     <row r="381" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I381" s="9"/>
+      <c r="I381" s="8"/>
     </row>
     <row r="382" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I382" s="9"/>
+      <c r="I382" s="8"/>
     </row>
     <row r="383" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I383" s="9"/>
+      <c r="I383" s="8"/>
     </row>
     <row r="384" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I384" s="9"/>
+      <c r="I384" s="8"/>
     </row>
     <row r="385" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I385" s="9"/>
+      <c r="I385" s="8"/>
     </row>
     <row r="386" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I386" s="9"/>
+      <c r="I386" s="8"/>
     </row>
     <row r="387" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I387" s="9"/>
+      <c r="I387" s="8"/>
     </row>
     <row r="388" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I388" s="9"/>
+      <c r="I388" s="8"/>
     </row>
     <row r="389" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I389" s="9"/>
+      <c r="I389" s="8"/>
     </row>
     <row r="390" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I390" s="9"/>
+      <c r="I390" s="8"/>
     </row>
     <row r="391" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I391" s="9"/>
+      <c r="I391" s="8"/>
     </row>
     <row r="392" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I392" s="9"/>
+      <c r="I392" s="8"/>
     </row>
     <row r="393" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I393" s="9"/>
+      <c r="I393" s="8"/>
     </row>
     <row r="394" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I394" s="9"/>
+      <c r="I394" s="8"/>
     </row>
     <row r="395" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I395" s="9"/>
+      <c r="I395" s="8"/>
     </row>
     <row r="396" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I396" s="9"/>
+      <c r="I396" s="8"/>
     </row>
     <row r="397" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I397" s="9"/>
+      <c r="I397" s="8"/>
     </row>
     <row r="398" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I398" s="9"/>
+      <c r="I398" s="8"/>
     </row>
     <row r="399" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I399" s="9"/>
+      <c r="I399" s="8"/>
     </row>
     <row r="400" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I400" s="9"/>
+      <c r="I400" s="8"/>
     </row>
     <row r="401" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I401" s="9"/>
+      <c r="I401" s="8"/>
     </row>
     <row r="402" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I402" s="9"/>
+      <c r="I402" s="8"/>
     </row>
     <row r="403" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I403" s="9"/>
+      <c r="I403" s="8"/>
     </row>
     <row r="404" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I404" s="9"/>
+      <c r="I404" s="8"/>
     </row>
     <row r="405" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I405" s="9"/>
+      <c r="I405" s="8"/>
     </row>
     <row r="406" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I406" s="9"/>
+      <c r="I406" s="8"/>
     </row>
     <row r="407" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I407" s="9"/>
+      <c r="I407" s="8"/>
     </row>
     <row r="408" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I408" s="9"/>
+      <c r="I408" s="8"/>
     </row>
     <row r="409" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I409" s="9"/>
+      <c r="I409" s="8"/>
     </row>
     <row r="410" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I410" s="9"/>
+      <c r="I410" s="8"/>
     </row>
     <row r="411" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I411" s="9"/>
+      <c r="I411" s="8"/>
     </row>
     <row r="412" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I412" s="9"/>
+      <c r="I412" s="8"/>
     </row>
     <row r="413" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I413" s="9"/>
+      <c r="I413" s="8"/>
     </row>
     <row r="414" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I414" s="9"/>
+      <c r="I414" s="8"/>
     </row>
     <row r="415" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I415" s="9"/>
+      <c r="I415" s="8"/>
     </row>
     <row r="416" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I416" s="9"/>
+      <c r="I416" s="8"/>
     </row>
     <row r="417" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I417" s="9"/>
+      <c r="I417" s="8"/>
     </row>
     <row r="418" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I418" s="9"/>
+      <c r="I418" s="8"/>
     </row>
     <row r="419" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I419" s="9"/>
+      <c r="I419" s="8"/>
     </row>
     <row r="420" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I420" s="9"/>
+      <c r="I420" s="8"/>
     </row>
     <row r="421" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I421" s="9"/>
+      <c r="I421" s="8"/>
     </row>
     <row r="422" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I422" s="9"/>
+      <c r="I422" s="8"/>
     </row>
     <row r="423" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I423" s="9"/>
+      <c r="I423" s="8"/>
     </row>
     <row r="424" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I424" s="9"/>
+      <c r="I424" s="8"/>
     </row>
     <row r="425" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I425" s="9"/>
+      <c r="I425" s="8"/>
     </row>
     <row r="426" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I426" s="9"/>
+      <c r="I426" s="8"/>
     </row>
     <row r="427" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I427" s="9"/>
+      <c r="I427" s="8"/>
     </row>
     <row r="428" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I428" s="9"/>
+      <c r="I428" s="8"/>
     </row>
     <row r="429" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I429" s="9"/>
+      <c r="I429" s="8"/>
     </row>
     <row r="430" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I430" s="9"/>
+      <c r="I430" s="8"/>
     </row>
     <row r="431" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I431" s="9"/>
+      <c r="I431" s="8"/>
     </row>
     <row r="432" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I432" s="9"/>
+      <c r="I432" s="8"/>
     </row>
     <row r="433" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I433" s="9"/>
+      <c r="I433" s="8"/>
     </row>
     <row r="434" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I434" s="9"/>
+      <c r="I434" s="8"/>
     </row>
     <row r="435" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I435" s="9"/>
+      <c r="I435" s="8"/>
     </row>
     <row r="436" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I436" s="9"/>
+      <c r="I436" s="8"/>
     </row>
     <row r="437" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I437" s="9"/>
+      <c r="I437" s="8"/>
     </row>
     <row r="438" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I438" s="9"/>
+      <c r="I438" s="8"/>
     </row>
     <row r="439" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I439" s="9"/>
+      <c r="I439" s="8"/>
     </row>
     <row r="440" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I440" s="9"/>
+      <c r="I440" s="8"/>
     </row>
     <row r="441" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I441" s="9"/>
+      <c r="I441" s="8"/>
     </row>
     <row r="442" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I442" s="9"/>
+      <c r="I442" s="8"/>
     </row>
     <row r="443" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I443" s="9"/>
+      <c r="I443" s="8"/>
     </row>
     <row r="444" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I444" s="9"/>
+      <c r="I444" s="8"/>
     </row>
     <row r="445" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I445" s="9"/>
+      <c r="I445" s="8"/>
     </row>
     <row r="446" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I446" s="9"/>
+      <c r="I446" s="8"/>
     </row>
     <row r="447" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I447" s="9"/>
+      <c r="I447" s="8"/>
     </row>
     <row r="448" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I448" s="9"/>
+      <c r="I448" s="8"/>
     </row>
     <row r="449" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I449" s="9"/>
+      <c r="I449" s="8"/>
     </row>
     <row r="450" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I450" s="9"/>
+      <c r="I450" s="8"/>
     </row>
     <row r="451" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I451" s="9"/>
+      <c r="I451" s="8"/>
     </row>
     <row r="452" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I452" s="9"/>
+      <c r="I452" s="8"/>
     </row>
     <row r="453" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I453" s="9"/>
+      <c r="I453" s="8"/>
     </row>
     <row r="454" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I454" s="9"/>
+      <c r="I454" s="8"/>
     </row>
     <row r="455" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I455" s="9"/>
+      <c r="I455" s="8"/>
     </row>
     <row r="456" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I456" s="9"/>
+      <c r="I456" s="8"/>
     </row>
     <row r="457" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I457" s="9"/>
+      <c r="I457" s="8"/>
     </row>
     <row r="458" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I458" s="9"/>
+      <c r="I458" s="8"/>
     </row>
     <row r="459" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I459" s="9"/>
+      <c r="I459" s="8"/>
     </row>
     <row r="460" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I460" s="9"/>
+      <c r="I460" s="8"/>
     </row>
     <row r="461" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I461" s="9"/>
+      <c r="I461" s="8"/>
     </row>
     <row r="462" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I462" s="9"/>
+      <c r="I462" s="8"/>
     </row>
     <row r="463" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I463" s="9"/>
+      <c r="I463" s="8"/>
     </row>
     <row r="464" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I464" s="9"/>
+      <c r="I464" s="8"/>
     </row>
     <row r="465" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I465" s="9"/>
+      <c r="I465" s="8"/>
     </row>
     <row r="466" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I466" s="9"/>
+      <c r="I466" s="8"/>
     </row>
     <row r="467" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I467" s="9"/>
+      <c r="I467" s="8"/>
     </row>
     <row r="468" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I468" s="9"/>
+      <c r="I468" s="8"/>
     </row>
     <row r="469" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I469" s="9"/>
+      <c r="I469" s="8"/>
     </row>
     <row r="470" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I470" s="9"/>
+      <c r="I470" s="8"/>
     </row>
     <row r="471" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I471" s="9"/>
+      <c r="I471" s="8"/>
     </row>
     <row r="472" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I472" s="9"/>
+      <c r="I472" s="8"/>
     </row>
     <row r="473" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I473" s="9"/>
+      <c r="I473" s="8"/>
     </row>
     <row r="474" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I474" s="9"/>
+      <c r="I474" s="8"/>
     </row>
     <row r="475" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I475" s="9"/>
+      <c r="I475" s="8"/>
     </row>
     <row r="476" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I476" s="9"/>
+      <c r="I476" s="8"/>
     </row>
     <row r="477" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I477" s="9"/>
+      <c r="I477" s="8"/>
     </row>
     <row r="478" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I478" s="9"/>
+      <c r="I478" s="8"/>
     </row>
     <row r="479" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I479" s="9"/>
+      <c r="I479" s="8"/>
     </row>
     <row r="480" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I480" s="9"/>
+      <c r="I480" s="8"/>
     </row>
     <row r="481" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I481" s="9"/>
+      <c r="I481" s="8"/>
     </row>
     <row r="482" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I482" s="9"/>
+      <c r="I482" s="8"/>
     </row>
     <row r="483" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I483" s="9"/>
+      <c r="I483" s="8"/>
     </row>
     <row r="484" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I484" s="9"/>
+      <c r="I484" s="8"/>
     </row>
     <row r="485" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I485" s="9"/>
+      <c r="I485" s="8"/>
     </row>
     <row r="486" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I486" s="9"/>
+      <c r="I486" s="8"/>
     </row>
     <row r="487" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I487" s="9"/>
+      <c r="I487" s="8"/>
     </row>
     <row r="488" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I488" s="9"/>
+      <c r="I488" s="8"/>
     </row>
     <row r="489" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I489" s="9"/>
+      <c r="I489" s="8"/>
     </row>
     <row r="490" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I490" s="9"/>
+      <c r="I490" s="8"/>
     </row>
     <row r="491" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I491" s="9"/>
+      <c r="I491" s="8"/>
     </row>
     <row r="492" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I492" s="9"/>
+      <c r="I492" s="8"/>
     </row>
     <row r="493" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I493" s="9"/>
+      <c r="I493" s="8"/>
     </row>
     <row r="494" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I494" s="9"/>
+      <c r="I494" s="8"/>
     </row>
     <row r="495" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I495" s="9"/>
+      <c r="I495" s="8"/>
     </row>
     <row r="496" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I496" s="9"/>
+      <c r="I496" s="8"/>
     </row>
     <row r="497" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I497" s="9"/>
+      <c r="I497" s="8"/>
     </row>
     <row r="498" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I498" s="9"/>
+      <c r="I498" s="8"/>
     </row>
     <row r="499" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I499" s="9"/>
+      <c r="I499" s="8"/>
     </row>
     <row r="500" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I500" s="9"/>
+      <c r="I500" s="8"/>
     </row>
     <row r="501" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I501" s="9"/>
+      <c r="I501" s="8"/>
     </row>
     <row r="502" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I502" s="9"/>
+      <c r="I502" s="8"/>
     </row>
     <row r="503" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I503" s="9"/>
+      <c r="I503" s="8"/>
     </row>
     <row r="504" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I504" s="9"/>
+      <c r="I504" s="8"/>
     </row>
     <row r="505" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I505" s="9"/>
+      <c r="I505" s="8"/>
     </row>
     <row r="506" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I506" s="9"/>
+      <c r="I506" s="8"/>
     </row>
     <row r="507" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I507" s="9"/>
+      <c r="I507" s="8"/>
     </row>
     <row r="508" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I508" s="9"/>
+      <c r="I508" s="8"/>
     </row>
     <row r="509" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I509" s="9"/>
+      <c r="I509" s="8"/>
     </row>
     <row r="510" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I510" s="9"/>
+      <c r="I510" s="8"/>
     </row>
     <row r="511" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I511" s="9"/>
+      <c r="I511" s="8"/>
     </row>
     <row r="512" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I512" s="9"/>
+      <c r="I512" s="8"/>
     </row>
     <row r="513" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I513" s="9"/>
+      <c r="I513" s="8"/>
     </row>
     <row r="514" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I514" s="9"/>
+      <c r="I514" s="8"/>
     </row>
     <row r="515" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I515" s="9"/>
+      <c r="I515" s="8"/>
     </row>
     <row r="516" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I516" s="9"/>
+      <c r="I516" s="8"/>
     </row>
     <row r="517" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I517" s="9"/>
+      <c r="I517" s="8"/>
     </row>
     <row r="518" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I518" s="9"/>
+      <c r="I518" s="8"/>
     </row>
     <row r="519" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I519" s="9"/>
+      <c r="I519" s="8"/>
     </row>
     <row r="520" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I520" s="9"/>
+      <c r="I520" s="8"/>
     </row>
     <row r="521" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I521" s="9"/>
+      <c r="I521" s="8"/>
     </row>
     <row r="522" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I522" s="9"/>
+      <c r="I522" s="8"/>
     </row>
     <row r="523" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I523" s="9"/>
+      <c r="I523" s="8"/>
     </row>
     <row r="524" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I524" s="9"/>
+      <c r="I524" s="8"/>
     </row>
     <row r="525" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I525" s="9"/>
+      <c r="I525" s="8"/>
     </row>
     <row r="526" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I526" s="9"/>
+      <c r="I526" s="8"/>
     </row>
     <row r="527" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I527" s="9"/>
+      <c r="I527" s="8"/>
     </row>
     <row r="528" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I528" s="9"/>
+      <c r="I528" s="8"/>
     </row>
     <row r="529" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I529" s="9"/>
+      <c r="I529" s="8"/>
     </row>
     <row r="530" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I530" s="9"/>
+      <c r="I530" s="8"/>
     </row>
     <row r="531" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I531" s="9"/>
+      <c r="I531" s="8"/>
     </row>
     <row r="532" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I532" s="9"/>
+      <c r="I532" s="8"/>
     </row>
     <row r="533" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I533" s="9"/>
+      <c r="I533" s="8"/>
     </row>
     <row r="534" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I534" s="9"/>
+      <c r="I534" s="8"/>
     </row>
     <row r="535" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I535" s="9"/>
+      <c r="I535" s="8"/>
     </row>
     <row r="536" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I536" s="9"/>
+      <c r="I536" s="8"/>
     </row>
     <row r="537" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I537" s="9"/>
+      <c r="I537" s="8"/>
     </row>
     <row r="538" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I538" s="9"/>
+      <c r="I538" s="8"/>
     </row>
     <row r="539" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I539" s="9"/>
+      <c r="I539" s="8"/>
     </row>
     <row r="540" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I540" s="9"/>
+      <c r="I540" s="8"/>
     </row>
     <row r="541" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I541" s="9"/>
+      <c r="I541" s="8"/>
     </row>
     <row r="542" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I542" s="9"/>
+      <c r="I542" s="8"/>
     </row>
     <row r="543" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I543" s="9"/>
+      <c r="I543" s="8"/>
     </row>
     <row r="544" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I544" s="9"/>
+      <c r="I544" s="8"/>
     </row>
     <row r="545" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I545" s="9"/>
+      <c r="I545" s="8"/>
     </row>
     <row r="546" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I546" s="9"/>
+      <c r="I546" s="8"/>
     </row>
     <row r="547" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I547" s="9"/>
+      <c r="I547" s="8"/>
     </row>
     <row r="548" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I548" s="9"/>
+      <c r="I548" s="8"/>
     </row>
     <row r="549" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I549" s="9"/>
+      <c r="I549" s="8"/>
     </row>
     <row r="550" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I550" s="9"/>
+      <c r="I550" s="8"/>
     </row>
     <row r="551" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I551" s="9"/>
+      <c r="I551" s="8"/>
     </row>
     <row r="552" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I552" s="9"/>
+      <c r="I552" s="8"/>
     </row>
     <row r="553" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I553" s="9"/>
+      <c r="I553" s="8"/>
     </row>
     <row r="554" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I554" s="9"/>
+      <c r="I554" s="8"/>
     </row>
     <row r="555" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I555" s="9"/>
+      <c r="I555" s="8"/>
     </row>
     <row r="556" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I556" s="9"/>
+      <c r="I556" s="8"/>
     </row>
     <row r="557" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I557" s="9"/>
+      <c r="I557" s="8"/>
     </row>
     <row r="558" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I558" s="9"/>
+      <c r="I558" s="8"/>
     </row>
     <row r="559" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I559" s="9"/>
+      <c r="I559" s="8"/>
     </row>
     <row r="560" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I560" s="9"/>
+      <c r="I560" s="8"/>
     </row>
     <row r="561" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I561" s="9"/>
+      <c r="I561" s="8"/>
     </row>
     <row r="562" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I562" s="9"/>
+      <c r="I562" s="8"/>
     </row>
     <row r="563" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I563" s="9"/>
+      <c r="I563" s="8"/>
     </row>
     <row r="564" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I564" s="9"/>
+      <c r="I564" s="8"/>
     </row>
     <row r="565" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I565" s="9"/>
+      <c r="I565" s="8"/>
     </row>
     <row r="566" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I566" s="9"/>
+      <c r="I566" s="8"/>
     </row>
     <row r="567" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I567" s="9"/>
+      <c r="I567" s="8"/>
     </row>
     <row r="568" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I568" s="9"/>
+      <c r="I568" s="8"/>
     </row>
     <row r="569" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I569" s="9"/>
+      <c r="I569" s="8"/>
     </row>
     <row r="570" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I570" s="9"/>
+      <c r="I570" s="8"/>
     </row>
     <row r="571" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I571" s="9"/>
+      <c r="I571" s="8"/>
     </row>
     <row r="572" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I572" s="9"/>
+      <c r="I572" s="8"/>
     </row>
     <row r="573" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I573" s="9"/>
+      <c r="I573" s="8"/>
     </row>
     <row r="574" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I574" s="9"/>
+      <c r="I574" s="8"/>
     </row>
     <row r="575" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I575" s="9"/>
+      <c r="I575" s="8"/>
     </row>
     <row r="576" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I576" s="9"/>
+      <c r="I576" s="8"/>
     </row>
     <row r="577" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I577" s="9"/>
+      <c r="I577" s="8"/>
     </row>
     <row r="578" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I578" s="9"/>
+      <c r="I578" s="8"/>
     </row>
     <row r="579" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I579" s="9"/>
+      <c r="I579" s="8"/>
     </row>
     <row r="580" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I580" s="9"/>
+      <c r="I580" s="8"/>
     </row>
     <row r="581" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I581" s="9"/>
+      <c r="I581" s="8"/>
     </row>
     <row r="582" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I582" s="9"/>
+      <c r="I582" s="8"/>
     </row>
     <row r="583" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I583" s="9"/>
+      <c r="I583" s="8"/>
     </row>
     <row r="584" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I584" s="9"/>
+      <c r="I584" s="8"/>
     </row>
     <row r="585" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I585" s="9"/>
+      <c r="I585" s="8"/>
     </row>
     <row r="586" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I586" s="9"/>
+      <c r="I586" s="8"/>
     </row>
     <row r="587" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I587" s="9"/>
+      <c r="I587" s="8"/>
     </row>
     <row r="588" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I588" s="9"/>
+      <c r="I588" s="8"/>
     </row>
     <row r="589" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I589" s="9"/>
+      <c r="I589" s="8"/>
     </row>
     <row r="590" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I590" s="9"/>
+      <c r="I590" s="8"/>
     </row>
     <row r="591" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I591" s="9"/>
+      <c r="I591" s="8"/>
     </row>
     <row r="592" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I592" s="9"/>
+      <c r="I592" s="8"/>
     </row>
     <row r="593" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I593" s="9"/>
+      <c r="I593" s="8"/>
     </row>
     <row r="594" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I594" s="9"/>
+      <c r="I594" s="8"/>
     </row>
     <row r="595" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I595" s="9"/>
+      <c r="I595" s="8"/>
     </row>
     <row r="596" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I596" s="9"/>
+      <c r="I596" s="8"/>
     </row>
     <row r="597" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I597" s="9"/>
+      <c r="I597" s="8"/>
     </row>
     <row r="598" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I598" s="9"/>
+      <c r="I598" s="8"/>
     </row>
     <row r="599" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I599" s="9"/>
+      <c r="I599" s="8"/>
     </row>
     <row r="600" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I600" s="9"/>
+      <c r="I600" s="8"/>
     </row>
     <row r="601" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I601" s="9"/>
+      <c r="I601" s="8"/>
     </row>
     <row r="602" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I602" s="9"/>
+      <c r="I602" s="8"/>
     </row>
     <row r="603" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I603" s="9"/>
+      <c r="I603" s="8"/>
     </row>
     <row r="604" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I604" s="9"/>
+      <c r="I604" s="8"/>
     </row>
     <row r="605" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I605" s="9"/>
+      <c r="I605" s="8"/>
     </row>
     <row r="606" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I606" s="9"/>
+      <c r="I606" s="8"/>
     </row>
     <row r="607" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I607" s="9"/>
+      <c r="I607" s="8"/>
     </row>
     <row r="608" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I608" s="9"/>
+      <c r="I608" s="8"/>
     </row>
     <row r="609" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I609" s="9"/>
+      <c r="I609" s="8"/>
     </row>
     <row r="610" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I610" s="9"/>
+      <c r="I610" s="8"/>
     </row>
     <row r="611" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I611" s="9"/>
+      <c r="I611" s="8"/>
     </row>
     <row r="612" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I612" s="9"/>
+      <c r="I612" s="8"/>
     </row>
     <row r="613" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I613" s="9"/>
+      <c r="I613" s="8"/>
     </row>
     <row r="614" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I614" s="9"/>
+      <c r="I614" s="8"/>
     </row>
     <row r="615" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I615" s="9"/>
+      <c r="I615" s="8"/>
     </row>
     <row r="616" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I616" s="9"/>
+      <c r="I616" s="8"/>
     </row>
     <row r="617" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I617" s="9"/>
+      <c r="I617" s="8"/>
     </row>
     <row r="618" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I618" s="9"/>
+      <c r="I618" s="8"/>
     </row>
     <row r="619" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I619" s="9"/>
+      <c r="I619" s="8"/>
     </row>
     <row r="620" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I620" s="9"/>
+      <c r="I620" s="8"/>
     </row>
     <row r="621" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I621" s="9"/>
+      <c r="I621" s="8"/>
     </row>
     <row r="622" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I622" s="9"/>
+      <c r="I622" s="8"/>
     </row>
     <row r="623" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I623" s="9"/>
+      <c r="I623" s="8"/>
     </row>
     <row r="624" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I624" s="9"/>
+      <c r="I624" s="8"/>
     </row>
     <row r="625" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I625" s="9"/>
+      <c r="I625" s="8"/>
     </row>
     <row r="626" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I626" s="9"/>
+      <c r="I626" s="8"/>
     </row>
     <row r="627" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I627" s="9"/>
+      <c r="I627" s="8"/>
     </row>
     <row r="628" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I628" s="9"/>
+      <c r="I628" s="8"/>
     </row>
     <row r="629" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I629" s="9"/>
+      <c r="I629" s="8"/>
     </row>
     <row r="630" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I630" s="9"/>
+      <c r="I630" s="8"/>
     </row>
     <row r="631" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I631" s="9"/>
+      <c r="I631" s="8"/>
     </row>
     <row r="632" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I632" s="9"/>
+      <c r="I632" s="8"/>
     </row>
     <row r="633" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I633" s="9"/>
+      <c r="I633" s="8"/>
     </row>
     <row r="634" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I634" s="9"/>
+      <c r="I634" s="8"/>
     </row>
     <row r="635" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I635" s="9"/>
+      <c r="I635" s="8"/>
     </row>
     <row r="636" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I636" s="9"/>
+      <c r="I636" s="8"/>
     </row>
     <row r="637" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I637" s="9"/>
+      <c r="I637" s="8"/>
     </row>
     <row r="638" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I638" s="9"/>
+      <c r="I638" s="8"/>
     </row>
     <row r="639" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I639" s="9"/>
+      <c r="I639" s="8"/>
     </row>
     <row r="640" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I640" s="9"/>
+      <c r="I640" s="8"/>
     </row>
     <row r="641" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I641" s="9"/>
+      <c r="I641" s="8"/>
     </row>
     <row r="642" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I642" s="9"/>
+      <c r="I642" s="8"/>
     </row>
     <row r="643" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I643" s="9"/>
+      <c r="I643" s="8"/>
     </row>
     <row r="644" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I644" s="9"/>
+      <c r="I644" s="8"/>
     </row>
     <row r="645" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I645" s="9"/>
+      <c r="I645" s="8"/>
     </row>
     <row r="646" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I646" s="9"/>
+      <c r="I646" s="8"/>
     </row>
     <row r="647" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I647" s="9"/>
+      <c r="I647" s="8"/>
     </row>
     <row r="648" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I648" s="9"/>
+      <c r="I648" s="8"/>
     </row>
     <row r="649" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I649" s="9"/>
+      <c r="I649" s="8"/>
     </row>
     <row r="650" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I650" s="9"/>
+      <c r="I650" s="8"/>
     </row>
     <row r="651" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I651" s="9"/>
+      <c r="I651" s="8"/>
     </row>
     <row r="652" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I652" s="9"/>
+      <c r="I652" s="8"/>
     </row>
     <row r="653" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I653" s="9"/>
+      <c r="I653" s="8"/>
     </row>
     <row r="654" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I654" s="9"/>
+      <c r="I654" s="8"/>
     </row>
     <row r="655" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I655" s="9"/>
+      <c r="I655" s="8"/>
     </row>
     <row r="656" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I656" s="9"/>
+      <c r="I656" s="8"/>
     </row>
     <row r="657" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I657" s="9"/>
+      <c r="I657" s="8"/>
     </row>
     <row r="658" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I658" s="9"/>
+      <c r="I658" s="8"/>
     </row>
     <row r="659" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I659" s="9"/>
+      <c r="I659" s="8"/>
     </row>
     <row r="660" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I660" s="9"/>
+      <c r="I660" s="8"/>
     </row>
     <row r="661" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I661" s="9"/>
+      <c r="I661" s="8"/>
     </row>
     <row r="662" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I662" s="9"/>
+      <c r="I662" s="8"/>
     </row>
     <row r="663" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I663" s="9"/>
+      <c r="I663" s="8"/>
     </row>
     <row r="664" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I664" s="9"/>
+      <c r="I664" s="8"/>
     </row>
     <row r="665" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I665" s="9"/>
+      <c r="I665" s="8"/>
     </row>
     <row r="666" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I666" s="9"/>
+      <c r="I666" s="8"/>
     </row>
     <row r="667" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I667" s="9"/>
+      <c r="I667" s="8"/>
     </row>
     <row r="668" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I668" s="9"/>
+      <c r="I668" s="8"/>
     </row>
     <row r="669" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I669" s="9"/>
+      <c r="I669" s="8"/>
     </row>
     <row r="670" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I670" s="9"/>
+      <c r="I670" s="8"/>
     </row>
     <row r="671" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I671" s="9"/>
+      <c r="I671" s="8"/>
     </row>
     <row r="672" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I672" s="9"/>
+      <c r="I672" s="8"/>
     </row>
     <row r="673" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I673" s="9"/>
+      <c r="I673" s="8"/>
     </row>
     <row r="674" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I674" s="9"/>
+      <c r="I674" s="8"/>
     </row>
     <row r="675" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I675" s="9"/>
+      <c r="I675" s="8"/>
     </row>
     <row r="676" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I676" s="9"/>
+      <c r="I676" s="8"/>
     </row>
     <row r="677" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I677" s="9"/>
+      <c r="I677" s="8"/>
     </row>
     <row r="678" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I678" s="9"/>
+      <c r="I678" s="8"/>
     </row>
     <row r="679" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I679" s="9"/>
+      <c r="I679" s="8"/>
     </row>
     <row r="680" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I680" s="9"/>
+      <c r="I680" s="8"/>
     </row>
     <row r="681" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I681" s="9"/>
+      <c r="I681" s="8"/>
     </row>
     <row r="682" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I682" s="9"/>
+      <c r="I682" s="8"/>
     </row>
     <row r="683" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I683" s="9"/>
+      <c r="I683" s="8"/>
     </row>
     <row r="684" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I684" s="9"/>
+      <c r="I684" s="8"/>
     </row>
     <row r="685" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I685" s="9"/>
+      <c r="I685" s="8"/>
     </row>
     <row r="686" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I686" s="9"/>
+      <c r="I686" s="8"/>
     </row>
     <row r="687" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I687" s="9"/>
+      <c r="I687" s="8"/>
     </row>
     <row r="688" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I688" s="9"/>
+      <c r="I688" s="8"/>
     </row>
     <row r="689" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I689" s="9"/>
+      <c r="I689" s="8"/>
     </row>
     <row r="690" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I690" s="9"/>
+      <c r="I690" s="8"/>
     </row>
     <row r="691" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I691" s="9"/>
+      <c r="I691" s="8"/>
     </row>
     <row r="692" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I692" s="9"/>
+      <c r="I692" s="8"/>
     </row>
     <row r="693" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I693" s="9"/>
+      <c r="I693" s="8"/>
     </row>
     <row r="694" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I694" s="9"/>
+      <c r="I694" s="8"/>
     </row>
     <row r="695" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I695" s="9"/>
+      <c r="I695" s="8"/>
     </row>
     <row r="696" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I696" s="9"/>
+      <c r="I696" s="8"/>
     </row>
     <row r="697" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I697" s="9"/>
+      <c r="I697" s="8"/>
     </row>
     <row r="698" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I698" s="9"/>
+      <c r="I698" s="8"/>
     </row>
     <row r="699" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I699" s="9"/>
+      <c r="I699" s="8"/>
     </row>
     <row r="700" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I700" s="9"/>
+      <c r="I700" s="8"/>
     </row>
     <row r="701" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I701" s="9"/>
+      <c r="I701" s="8"/>
     </row>
     <row r="702" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I702" s="9"/>
+      <c r="I702" s="8"/>
     </row>
     <row r="703" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I703" s="9"/>
+      <c r="I703" s="8"/>
     </row>
     <row r="704" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I704" s="9"/>
+      <c r="I704" s="8"/>
     </row>
     <row r="705" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I705" s="9"/>
+      <c r="I705" s="8"/>
     </row>
     <row r="706" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I706" s="9"/>
+      <c r="I706" s="8"/>
     </row>
     <row r="707" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I707" s="9"/>
+      <c r="I707" s="8"/>
     </row>
     <row r="708" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I708" s="9"/>
+      <c r="I708" s="8"/>
     </row>
     <row r="709" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I709" s="9"/>
+      <c r="I709" s="8"/>
     </row>
     <row r="710" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I710" s="9"/>
+      <c r="I710" s="8"/>
     </row>
     <row r="711" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I711" s="9"/>
+      <c r="I711" s="8"/>
     </row>
     <row r="712" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I712" s="9"/>
+      <c r="I712" s="8"/>
     </row>
     <row r="713" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I713" s="9"/>
+      <c r="I713" s="8"/>
     </row>
     <row r="714" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I714" s="9"/>
+      <c r="I714" s="8"/>
     </row>
     <row r="715" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I715" s="9"/>
+      <c r="I715" s="8"/>
     </row>
     <row r="716" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I716" s="9"/>
+      <c r="I716" s="8"/>
     </row>
     <row r="717" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I717" s="9"/>
+      <c r="I717" s="8"/>
     </row>
     <row r="718" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I718" s="9"/>
+      <c r="I718" s="8"/>
     </row>
     <row r="719" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I719" s="9"/>
+      <c r="I719" s="8"/>
     </row>
     <row r="720" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I720" s="9"/>
+      <c r="I720" s="8"/>
     </row>
     <row r="721" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I721" s="9"/>
+      <c r="I721" s="8"/>
     </row>
     <row r="722" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I722" s="9"/>
+      <c r="I722" s="8"/>
     </row>
     <row r="723" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I723" s="9"/>
+      <c r="I723" s="8"/>
     </row>
     <row r="724" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I724" s="9"/>
+      <c r="I724" s="8"/>
     </row>
     <row r="725" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I725" s="9"/>
+      <c r="I725" s="8"/>
     </row>
     <row r="726" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I726" s="9"/>
+      <c r="I726" s="8"/>
     </row>
     <row r="727" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I727" s="9"/>
+      <c r="I727" s="8"/>
     </row>
     <row r="728" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I728" s="9"/>
+      <c r="I728" s="8"/>
     </row>
     <row r="729" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I729" s="9"/>
+      <c r="I729" s="8"/>
     </row>
     <row r="730" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I730" s="9"/>
+      <c r="I730" s="8"/>
     </row>
     <row r="731" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I731" s="9"/>
+      <c r="I731" s="8"/>
     </row>
     <row r="732" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I732" s="9"/>
+      <c r="I732" s="8"/>
     </row>
     <row r="733" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I733" s="9"/>
+      <c r="I733" s="8"/>
     </row>
     <row r="734" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I734" s="9"/>
+      <c r="I734" s="8"/>
     </row>
     <row r="735" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I735" s="9"/>
+      <c r="I735" s="8"/>
     </row>
     <row r="736" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I736" s="9"/>
+      <c r="I736" s="8"/>
     </row>
     <row r="737" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I737" s="9"/>
+      <c r="I737" s="8"/>
     </row>
     <row r="738" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I738" s="9"/>
+      <c r="I738" s="8"/>
     </row>
     <row r="739" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I739" s="9"/>
+      <c r="I739" s="8"/>
     </row>
     <row r="740" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I740" s="9"/>
+      <c r="I740" s="8"/>
     </row>
     <row r="741" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I741" s="9"/>
+      <c r="I741" s="8"/>
     </row>
     <row r="742" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I742" s="9"/>
+      <c r="I742" s="8"/>
     </row>
     <row r="743" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I743" s="9"/>
+      <c r="I743" s="8"/>
     </row>
     <row r="744" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I744" s="9"/>
+      <c r="I744" s="8"/>
     </row>
     <row r="745" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I745" s="9"/>
+      <c r="I745" s="8"/>
     </row>
     <row r="746" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I746" s="9"/>
+      <c r="I746" s="8"/>
     </row>
     <row r="747" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I747" s="9"/>
+      <c r="I747" s="8"/>
     </row>
     <row r="748" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I748" s="9"/>
+      <c r="I748" s="8"/>
     </row>
     <row r="749" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I749" s="9"/>
+      <c r="I749" s="8"/>
     </row>
     <row r="750" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I750" s="9"/>
+      <c r="I750" s="8"/>
     </row>
     <row r="751" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I751" s="9"/>
+      <c r="I751" s="8"/>
     </row>
     <row r="752" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I752" s="9"/>
+      <c r="I752" s="8"/>
     </row>
     <row r="753" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I753" s="9"/>
+      <c r="I753" s="8"/>
     </row>
     <row r="754" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I754" s="9"/>
+      <c r="I754" s="8"/>
     </row>
     <row r="755" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I755" s="9"/>
+      <c r="I755" s="8"/>
     </row>
     <row r="756" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I756" s="9"/>
+      <c r="I756" s="8"/>
     </row>
     <row r="757" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I757" s="9"/>
+      <c r="I757" s="8"/>
     </row>
     <row r="758" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I758" s="9"/>
+      <c r="I758" s="8"/>
     </row>
     <row r="759" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I759" s="9"/>
+      <c r="I759" s="8"/>
     </row>
     <row r="760" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I760" s="9"/>
+      <c r="I760" s="8"/>
     </row>
     <row r="761" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I761" s="9"/>
+      <c r="I761" s="8"/>
     </row>
     <row r="762" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I762" s="9"/>
+      <c r="I762" s="8"/>
     </row>
     <row r="763" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I763" s="9"/>
+      <c r="I763" s="8"/>
     </row>
     <row r="764" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I764" s="9"/>
+      <c r="I764" s="8"/>
     </row>
     <row r="765" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I765" s="9"/>
+      <c r="I765" s="8"/>
     </row>
     <row r="766" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I766" s="9"/>
+      <c r="I766" s="8"/>
     </row>
     <row r="767" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I767" s="9"/>
+      <c r="I767" s="8"/>
     </row>
     <row r="768" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I768" s="9"/>
+      <c r="I768" s="8"/>
     </row>
     <row r="769" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I769" s="9"/>
+      <c r="I769" s="8"/>
     </row>
     <row r="770" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I770" s="9"/>
+      <c r="I770" s="8"/>
     </row>
     <row r="771" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I771" s="9"/>
+      <c r="I771" s="8"/>
     </row>
     <row r="772" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I772" s="9"/>
+      <c r="I772" s="8"/>
     </row>
     <row r="773" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I773" s="9"/>
+      <c r="I773" s="8"/>
     </row>
     <row r="774" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I774" s="9"/>
+      <c r="I774" s="8"/>
     </row>
     <row r="775" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I775" s="9"/>
+      <c r="I775" s="8"/>
     </row>
     <row r="776" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I776" s="9"/>
+      <c r="I776" s="8"/>
     </row>
     <row r="777" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I777" s="9"/>
+      <c r="I777" s="8"/>
     </row>
     <row r="778" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I778" s="9"/>
+      <c r="I778" s="8"/>
     </row>
     <row r="779" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I779" s="9"/>
+      <c r="I779" s="8"/>
     </row>
     <row r="780" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I780" s="9"/>
+      <c r="I780" s="8"/>
     </row>
     <row r="781" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I781" s="9"/>
+      <c r="I781" s="8"/>
     </row>
     <row r="782" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I782" s="9"/>
+      <c r="I782" s="8"/>
     </row>
     <row r="783" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I783" s="9"/>
+      <c r="I783" s="8"/>
     </row>
     <row r="784" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I784" s="9"/>
+      <c r="I784" s="8"/>
     </row>
     <row r="785" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I785" s="9"/>
+      <c r="I785" s="8"/>
     </row>
     <row r="786" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I786" s="9"/>
+      <c r="I786" s="8"/>
     </row>
     <row r="787" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I787" s="9"/>
+      <c r="I787" s="8"/>
     </row>
     <row r="788" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I788" s="9"/>
+      <c r="I788" s="8"/>
     </row>
     <row r="789" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I789" s="9"/>
+      <c r="I789" s="8"/>
     </row>
     <row r="790" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I790" s="9"/>
+      <c r="I790" s="8"/>
     </row>
     <row r="791" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I791" s="9"/>
+      <c r="I791" s="8"/>
     </row>
     <row r="792" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I792" s="9"/>
+      <c r="I792" s="8"/>
     </row>
     <row r="793" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I793" s="9"/>
+      <c r="I793" s="8"/>
     </row>
     <row r="794" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I794" s="9"/>
+      <c r="I794" s="8"/>
     </row>
     <row r="795" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I795" s="9"/>
+      <c r="I795" s="8"/>
     </row>
     <row r="796" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I796" s="9"/>
+      <c r="I796" s="8"/>
     </row>
     <row r="797" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I797" s="9"/>
+      <c r="I797" s="8"/>
     </row>
     <row r="798" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I798" s="9"/>
+      <c r="I798" s="8"/>
     </row>
     <row r="799" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I799" s="9"/>
+      <c r="I799" s="8"/>
     </row>
     <row r="800" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I800" s="9"/>
+      <c r="I800" s="8"/>
     </row>
     <row r="801" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I801" s="9"/>
+      <c r="I801" s="8"/>
     </row>
     <row r="802" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I802" s="9"/>
+      <c r="I802" s="8"/>
     </row>
     <row r="803" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I803" s="9"/>
+      <c r="I803" s="8"/>
     </row>
     <row r="804" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I804" s="9"/>
+      <c r="I804" s="8"/>
     </row>
     <row r="805" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I805" s="9"/>
+      <c r="I805" s="8"/>
     </row>
     <row r="806" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I806" s="9"/>
+      <c r="I806" s="8"/>
     </row>
     <row r="807" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I807" s="9"/>
+      <c r="I807" s="8"/>
     </row>
     <row r="808" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I808" s="9"/>
+      <c r="I808" s="8"/>
     </row>
     <row r="809" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I809" s="9"/>
+      <c r="I809" s="8"/>
     </row>
     <row r="810" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I810" s="9"/>
+      <c r="I810" s="8"/>
     </row>
     <row r="811" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I811" s="9"/>
+      <c r="I811" s="8"/>
     </row>
     <row r="812" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I812" s="9"/>
+      <c r="I812" s="8"/>
     </row>
     <row r="813" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I813" s="9"/>
+      <c r="I813" s="8"/>
     </row>
     <row r="814" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I814" s="9"/>
+      <c r="I814" s="8"/>
     </row>
     <row r="815" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I815" s="9"/>
+      <c r="I815" s="8"/>
     </row>
     <row r="816" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I816" s="9"/>
+      <c r="I816" s="8"/>
     </row>
     <row r="817" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I817" s="9"/>
+      <c r="I817" s="8"/>
     </row>
     <row r="818" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I818" s="9"/>
+      <c r="I818" s="8"/>
     </row>
     <row r="819" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I819" s="9"/>
+      <c r="I819" s="8"/>
     </row>
     <row r="820" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I820" s="9"/>
+      <c r="I820" s="8"/>
     </row>
     <row r="821" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I821" s="9"/>
+      <c r="I821" s="8"/>
     </row>
     <row r="822" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I822" s="9"/>
+      <c r="I822" s="8"/>
     </row>
     <row r="823" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I823" s="9"/>
+      <c r="I823" s="8"/>
     </row>
     <row r="824" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I824" s="9"/>
+      <c r="I824" s="8"/>
     </row>
     <row r="825" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I825" s="9"/>
+      <c r="I825" s="8"/>
     </row>
     <row r="826" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I826" s="9"/>
+      <c r="I826" s="8"/>
     </row>
     <row r="827" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I827" s="9"/>
+      <c r="I827" s="8"/>
     </row>
     <row r="828" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I828" s="9"/>
+      <c r="I828" s="8"/>
     </row>
     <row r="829" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I829" s="9"/>
+      <c r="I829" s="8"/>
     </row>
     <row r="830" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I830" s="9"/>
+      <c r="I830" s="8"/>
     </row>
     <row r="831" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I831" s="9"/>
+      <c r="I831" s="8"/>
     </row>
     <row r="832" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I832" s="9"/>
+      <c r="I832" s="8"/>
     </row>
     <row r="833" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I833" s="9"/>
+      <c r="I833" s="8"/>
     </row>
     <row r="834" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I834" s="9"/>
+      <c r="I834" s="8"/>
     </row>
     <row r="835" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I835" s="9"/>
+      <c r="I835" s="8"/>
     </row>
     <row r="836" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I836" s="9"/>
+      <c r="I836" s="8"/>
     </row>
     <row r="837" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I837" s="9"/>
+      <c r="I837" s="8"/>
     </row>
     <row r="838" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I838" s="9"/>
+      <c r="I838" s="8"/>
     </row>
     <row r="839" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I839" s="9"/>
+      <c r="I839" s="8"/>
     </row>
     <row r="840" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I840" s="9"/>
+      <c r="I840" s="8"/>
     </row>
     <row r="841" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I841" s="9"/>
+      <c r="I841" s="8"/>
     </row>
     <row r="842" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I842" s="9"/>
+      <c r="I842" s="8"/>
     </row>
     <row r="843" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I843" s="9"/>
+      <c r="I843" s="8"/>
     </row>
     <row r="844" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I844" s="9"/>
+      <c r="I844" s="8"/>
     </row>
     <row r="845" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I845" s="9"/>
+      <c r="I845" s="8"/>
     </row>
     <row r="846" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I846" s="9"/>
+      <c r="I846" s="8"/>
     </row>
     <row r="847" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I847" s="9"/>
+      <c r="I847" s="8"/>
     </row>
     <row r="848" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I848" s="9"/>
+      <c r="I848" s="8"/>
     </row>
     <row r="849" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I849" s="9"/>
+      <c r="I849" s="8"/>
     </row>
     <row r="850" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I850" s="9"/>
+      <c r="I850" s="8"/>
     </row>
     <row r="851" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I851" s="9"/>
+      <c r="I851" s="8"/>
     </row>
     <row r="852" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I852" s="9"/>
+      <c r="I852" s="8"/>
     </row>
     <row r="853" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I853" s="9"/>
+      <c r="I853" s="8"/>
     </row>
     <row r="854" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I854" s="9"/>
+      <c r="I854" s="8"/>
     </row>
     <row r="855" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I855" s="9"/>
+      <c r="I855" s="8"/>
     </row>
     <row r="856" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I856" s="9"/>
+      <c r="I856" s="8"/>
     </row>
     <row r="857" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I857" s="9"/>
+      <c r="I857" s="8"/>
     </row>
     <row r="858" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I858" s="9"/>
+      <c r="I858" s="8"/>
     </row>
     <row r="859" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I859" s="9"/>
+      <c r="I859" s="8"/>
     </row>
     <row r="860" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I860" s="9"/>
+      <c r="I860" s="8"/>
     </row>
     <row r="861" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I861" s="9"/>
+      <c r="I861" s="8"/>
     </row>
     <row r="862" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I862" s="9"/>
+      <c r="I862" s="8"/>
     </row>
     <row r="863" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I863" s="9"/>
+      <c r="I863" s="8"/>
     </row>
     <row r="864" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I864" s="9"/>
+      <c r="I864" s="8"/>
     </row>
     <row r="865" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I865" s="9"/>
+      <c r="I865" s="8"/>
     </row>
     <row r="866" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I866" s="9"/>
+      <c r="I866" s="8"/>
     </row>
     <row r="867" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I867" s="9"/>
+      <c r="I867" s="8"/>
     </row>
     <row r="868" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I868" s="9"/>
+      <c r="I868" s="8"/>
     </row>
     <row r="869" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I869" s="9"/>
+      <c r="I869" s="8"/>
     </row>
     <row r="870" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I870" s="9"/>
+      <c r="I870" s="8"/>
     </row>
     <row r="871" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I871" s="9"/>
+      <c r="I871" s="8"/>
     </row>
     <row r="872" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I872" s="9"/>
+      <c r="I872" s="8"/>
     </row>
     <row r="873" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I873" s="9"/>
+      <c r="I873" s="8"/>
     </row>
     <row r="874" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I874" s="9"/>
+      <c r="I874" s="8"/>
     </row>
     <row r="875" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I875" s="9"/>
+      <c r="I875" s="8"/>
     </row>
     <row r="876" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I876" s="9"/>
+      <c r="I876" s="8"/>
     </row>
     <row r="877" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I877" s="9"/>
+      <c r="I877" s="8"/>
     </row>
     <row r="878" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I878" s="9"/>
+      <c r="I878" s="8"/>
     </row>
     <row r="879" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I879" s="9"/>
+      <c r="I879" s="8"/>
     </row>
     <row r="880" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I880" s="9"/>
+      <c r="I880" s="8"/>
     </row>
     <row r="881" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I881" s="9"/>
+      <c r="I881" s="8"/>
     </row>
     <row r="882" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I882" s="9"/>
+      <c r="I882" s="8"/>
     </row>
     <row r="883" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I883" s="9"/>
+      <c r="I883" s="8"/>
     </row>
     <row r="884" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I884" s="9"/>
+      <c r="I884" s="8"/>
     </row>
     <row r="885" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I885" s="9"/>
+      <c r="I885" s="8"/>
     </row>
     <row r="886" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I886" s="9"/>
+      <c r="I886" s="8"/>
     </row>
     <row r="887" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I887" s="9"/>
+      <c r="I887" s="8"/>
     </row>
     <row r="888" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I888" s="9"/>
+      <c r="I888" s="8"/>
     </row>
     <row r="889" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I889" s="9"/>
+      <c r="I889" s="8"/>
     </row>
     <row r="890" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I890" s="9"/>
+      <c r="I890" s="8"/>
     </row>
     <row r="891" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I891" s="9"/>
+      <c r="I891" s="8"/>
     </row>
     <row r="892" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I892" s="9"/>
+      <c r="I892" s="8"/>
     </row>
     <row r="893" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I893" s="9"/>
+      <c r="I893" s="8"/>
     </row>
     <row r="894" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I894" s="9"/>
+      <c r="I894" s="8"/>
     </row>
     <row r="895" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I895" s="9"/>
+      <c r="I895" s="8"/>
     </row>
     <row r="896" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I896" s="9"/>
+      <c r="I896" s="8"/>
     </row>
     <row r="897" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I897" s="9"/>
+      <c r="I897" s="8"/>
     </row>
     <row r="898" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I898" s="9"/>
+      <c r="I898" s="8"/>
     </row>
     <row r="899" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I899" s="9"/>
+      <c r="I899" s="8"/>
     </row>
     <row r="900" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I900" s="9"/>
+      <c r="I900" s="8"/>
     </row>
     <row r="901" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I901" s="9"/>
+      <c r="I901" s="8"/>
     </row>
     <row r="902" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I902" s="9"/>
+      <c r="I902" s="8"/>
     </row>
     <row r="903" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I903" s="9"/>
+      <c r="I903" s="8"/>
     </row>
     <row r="904" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I904" s="9"/>
+      <c r="I904" s="8"/>
     </row>
     <row r="905" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I905" s="9"/>
+      <c r="I905" s="8"/>
     </row>
     <row r="906" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I906" s="9"/>
+      <c r="I906" s="8"/>
     </row>
     <row r="907" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I907" s="9"/>
+      <c r="I907" s="8"/>
     </row>
     <row r="908" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I908" s="9"/>
+      <c r="I908" s="8"/>
     </row>
     <row r="909" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I909" s="9"/>
+      <c r="I909" s="8"/>
     </row>
     <row r="910" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I910" s="9"/>
+      <c r="I910" s="8"/>
     </row>
     <row r="911" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I911" s="9"/>
+      <c r="I911" s="8"/>
     </row>
     <row r="912" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I912" s="9"/>
+      <c r="I912" s="8"/>
     </row>
     <row r="913" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I913" s="9"/>
+      <c r="I913" s="8"/>
     </row>
     <row r="914" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I914" s="9"/>
+      <c r="I914" s="8"/>
     </row>
     <row r="915" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I915" s="9"/>
+      <c r="I915" s="8"/>
     </row>
     <row r="916" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I916" s="9"/>
+      <c r="I916" s="8"/>
     </row>
     <row r="917" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I917" s="9"/>
+      <c r="I917" s="8"/>
     </row>
     <row r="918" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I918" s="9"/>
+      <c r="I918" s="8"/>
     </row>
     <row r="919" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I919" s="9"/>
+      <c r="I919" s="8"/>
     </row>
     <row r="920" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I920" s="9"/>
+      <c r="I920" s="8"/>
     </row>
     <row r="921" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I921" s="9"/>
+      <c r="I921" s="8"/>
     </row>
     <row r="922" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I922" s="9"/>
+      <c r="I922" s="8"/>
     </row>
     <row r="923" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I923" s="9"/>
+      <c r="I923" s="8"/>
     </row>
     <row r="924" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I924" s="9"/>
+      <c r="I924" s="8"/>
     </row>
     <row r="925" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I925" s="9"/>
+      <c r="I925" s="8"/>
     </row>
     <row r="926" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I926" s="9"/>
+      <c r="I926" s="8"/>
     </row>
     <row r="927" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I927" s="9"/>
+      <c r="I927" s="8"/>
     </row>
     <row r="928" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I928" s="9"/>
+      <c r="I928" s="8"/>
     </row>
     <row r="929" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I929" s="9"/>
+      <c r="I929" s="8"/>
     </row>
     <row r="930" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I930" s="9"/>
+      <c r="I930" s="8"/>
     </row>
     <row r="931" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I931" s="9"/>
+      <c r="I931" s="8"/>
     </row>
     <row r="932" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I932" s="9"/>
+      <c r="I932" s="8"/>
     </row>
     <row r="933" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I933" s="9"/>
+      <c r="I933" s="8"/>
     </row>
     <row r="934" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I934" s="9"/>
+      <c r="I934" s="8"/>
     </row>
     <row r="935" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I935" s="9"/>
+      <c r="I935" s="8"/>
     </row>
     <row r="936" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I936" s="9"/>
+      <c r="I936" s="8"/>
     </row>
     <row r="937" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I937" s="9"/>
+      <c r="I937" s="8"/>
     </row>
     <row r="938" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I938" s="9"/>
+      <c r="I938" s="8"/>
     </row>
     <row r="939" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I939" s="9"/>
+      <c r="I939" s="8"/>
     </row>
     <row r="940" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I940" s="9"/>
+      <c r="I940" s="8"/>
     </row>
     <row r="941" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I941" s="9"/>
+      <c r="I941" s="8"/>
     </row>
     <row r="942" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I942" s="9"/>
+      <c r="I942" s="8"/>
     </row>
     <row r="943" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I943" s="9"/>
+      <c r="I943" s="8"/>
     </row>
     <row r="944" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I944" s="9"/>
+      <c r="I944" s="8"/>
     </row>
     <row r="945" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I945" s="9"/>
+      <c r="I945" s="8"/>
     </row>
     <row r="946" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I946" s="9"/>
+      <c r="I946" s="8"/>
     </row>
     <row r="947" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I947" s="9"/>
+      <c r="I947" s="8"/>
     </row>
     <row r="948" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I948" s="9"/>
+      <c r="I948" s="8"/>
     </row>
     <row r="949" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I949" s="9"/>
+      <c r="I949" s="8"/>
     </row>
     <row r="950" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I950" s="9"/>
+      <c r="I950" s="8"/>
     </row>
     <row r="951" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I951" s="9"/>
+      <c r="I951" s="8"/>
     </row>
     <row r="952" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I952" s="9"/>
+      <c r="I952" s="8"/>
     </row>
     <row r="953" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I953" s="9"/>
+      <c r="I953" s="8"/>
     </row>
     <row r="954" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I954" s="9"/>
+      <c r="I954" s="8"/>
     </row>
     <row r="955" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I955" s="9"/>
+      <c r="I955" s="8"/>
     </row>
     <row r="956" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I956" s="9"/>
+      <c r="I956" s="8"/>
     </row>
     <row r="957" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I957" s="9"/>
+      <c r="I957" s="8"/>
     </row>
     <row r="958" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I958" s="9"/>
+      <c r="I958" s="8"/>
     </row>
     <row r="959" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I959" s="9"/>
+      <c r="I959" s="8"/>
     </row>
     <row r="960" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I960" s="9"/>
+      <c r="I960" s="8"/>
     </row>
     <row r="961" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I961" s="9"/>
+      <c r="I961" s="8"/>
     </row>
     <row r="962" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I962" s="9"/>
+      <c r="I962" s="8"/>
     </row>
     <row r="963" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I963" s="9"/>
+      <c r="I963" s="8"/>
     </row>
     <row r="964" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I964" s="9"/>
+      <c r="I964" s="8"/>
     </row>
     <row r="965" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I965" s="9"/>
+      <c r="I965" s="8"/>
     </row>
     <row r="966" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I966" s="9"/>
+      <c r="I966" s="8"/>
     </row>
     <row r="967" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I967" s="9"/>
+      <c r="I967" s="8"/>
     </row>
     <row r="968" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I968" s="9"/>
+      <c r="I968" s="8"/>
     </row>
     <row r="969" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I969" s="9"/>
+      <c r="I969" s="8"/>
     </row>
     <row r="970" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I970" s="9"/>
+      <c r="I970" s="8"/>
     </row>
     <row r="971" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I971" s="9"/>
+      <c r="I971" s="8"/>
     </row>
     <row r="972" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I972" s="9"/>
+      <c r="I972" s="8"/>
     </row>
     <row r="973" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I973" s="9"/>
+      <c r="I973" s="8"/>
     </row>
     <row r="974" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I974" s="9"/>
+      <c r="I974" s="8"/>
     </row>
     <row r="975" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I975" s="9"/>
+      <c r="I975" s="8"/>
     </row>
     <row r="976" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I976" s="9"/>
+      <c r="I976" s="8"/>
     </row>
     <row r="977" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I977" s="9"/>
+      <c r="I977" s="8"/>
     </row>
     <row r="978" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I978" s="9"/>
+      <c r="I978" s="8"/>
     </row>
     <row r="979" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I979" s="9"/>
+      <c r="I979" s="8"/>
     </row>
     <row r="980" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I980" s="9"/>
+      <c r="I980" s="8"/>
     </row>
     <row r="981" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I981" s="9"/>
+      <c r="I981" s="8"/>
     </row>
     <row r="982" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I982" s="9"/>
+      <c r="I982" s="8"/>
     </row>
     <row r="983" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I983" s="9"/>
+      <c r="I983" s="8"/>
     </row>
     <row r="984" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I984" s="9"/>
+      <c r="I984" s="8"/>
     </row>
     <row r="985" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I985" s="9"/>
+      <c r="I985" s="8"/>
     </row>
     <row r="986" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I986" s="9"/>
+      <c r="I986" s="8"/>
     </row>
     <row r="987" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I987" s="9"/>
+      <c r="I987" s="8"/>
     </row>
     <row r="988" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I988" s="9"/>
+      <c r="I988" s="8"/>
     </row>
     <row r="989" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I989" s="9"/>
+      <c r="I989" s="8"/>
     </row>
     <row r="990" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I990" s="9"/>
+      <c r="I990" s="8"/>
     </row>
     <row r="991" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I991" s="9"/>
+      <c r="I991" s="8"/>
     </row>
     <row r="992" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I992" s="9"/>
+      <c r="I992" s="8"/>
     </row>
     <row r="993" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I993" s="9"/>
+      <c r="I993" s="8"/>
     </row>
     <row r="994" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I994" s="9"/>
+      <c r="I994" s="8"/>
     </row>
     <row r="995" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I995" s="9"/>
+      <c r="I995" s="8"/>
     </row>
     <row r="996" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I996" s="9"/>
+      <c r="I996" s="8"/>
     </row>
     <row r="997" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I997" s="9"/>
+      <c r="I997" s="8"/>
     </row>
     <row r="998" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I998" s="9"/>
+      <c r="I998" s="8"/>
     </row>
     <row r="999" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I999" s="9"/>
+      <c r="I999" s="8"/>
     </row>
     <row r="1000" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1000" s="9"/>
+      <c r="I1000" s="8"/>
     </row>
     <row r="1001" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1001" s="9"/>
+      <c r="I1001" s="8"/>
     </row>
     <row r="1002" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1002" s="9"/>
+      <c r="I1002" s="8"/>
     </row>
     <row r="1003" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1003" s="9"/>
+      <c r="I1003" s="8"/>
     </row>
     <row r="1004" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1004" s="9"/>
+      <c r="I1004" s="8"/>
     </row>
     <row r="1005" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1005" s="9"/>
+      <c r="I1005" s="8"/>
     </row>
     <row r="1006" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1006" s="9"/>
+      <c r="I1006" s="8"/>
     </row>
     <row r="1007" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1007" s="9"/>
+      <c r="I1007" s="8"/>
     </row>
     <row r="1008" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1008" s="9"/>
+      <c r="I1008" s="8"/>
     </row>
     <row r="1009" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1009" s="9"/>
+      <c r="I1009" s="8"/>
     </row>
     <row r="1010" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1010" s="9"/>
+      <c r="I1010" s="8"/>
     </row>
     <row r="1011" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1011" s="9"/>
+      <c r="I1011" s="8"/>
     </row>
     <row r="1012" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1012" s="9"/>
+      <c r="I1012" s="8"/>
     </row>
     <row r="1013" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1013" s="9"/>
+      <c r="I1013" s="8"/>
     </row>
     <row r="1014" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1014" s="9"/>
+      <c r="I1014" s="8"/>
     </row>
     <row r="1015" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1015" s="9"/>
+      <c r="I1015" s="8"/>
     </row>
     <row r="1016" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1016" s="9"/>
+      <c r="I1016" s="8"/>
     </row>
     <row r="1017" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1017" s="9"/>
+      <c r="I1017" s="8"/>
     </row>
     <row r="1018" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1018" s="9"/>
+      <c r="I1018" s="8"/>
     </row>
     <row r="1019" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1019" s="9"/>
+      <c r="I1019" s="8"/>
     </row>
     <row r="1020" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1020" s="9"/>
+      <c r="I1020" s="8"/>
     </row>
     <row r="1021" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1021" s="9"/>
+      <c r="I1021" s="8"/>
     </row>
     <row r="1022" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1022" s="9"/>
+      <c r="I1022" s="8"/>
     </row>
     <row r="1023" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1023" s="9"/>
+      <c r="I1023" s="8"/>
     </row>
     <row r="1024" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1024" s="9"/>
+      <c r="I1024" s="8"/>
     </row>
     <row r="1025" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1025" s="9"/>
+      <c r="I1025" s="8"/>
     </row>
     <row r="1026" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1026" s="9"/>
+      <c r="I1026" s="8"/>
     </row>
     <row r="1027" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1027" s="9"/>
+      <c r="I1027" s="8"/>
     </row>
     <row r="1028" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1028" s="9"/>
+      <c r="I1028" s="8"/>
     </row>
     <row r="1029" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1029" s="9"/>
+      <c r="I1029" s="8"/>
     </row>
     <row r="1030" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1030" s="9"/>
+      <c r="I1030" s="8"/>
     </row>
     <row r="1031" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1031" s="9"/>
+      <c r="I1031" s="8"/>
     </row>
     <row r="1032" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1032" s="9"/>
+      <c r="I1032" s="8"/>
     </row>
     <row r="1033" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1033" s="9"/>
+      <c r="I1033" s="8"/>
     </row>
     <row r="1034" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1034" s="9"/>
+      <c r="I1034" s="8"/>
     </row>
     <row r="1035" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1035" s="9"/>
+      <c r="I1035" s="8"/>
     </row>
     <row r="1036" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1036" s="9"/>
+      <c r="I1036" s="8"/>
     </row>
     <row r="1037" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1037" s="9"/>
+      <c r="I1037" s="8"/>
     </row>
     <row r="1038" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1038" s="9"/>
+      <c r="I1038" s="8"/>
     </row>
     <row r="1039" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1039" s="9"/>
+      <c r="I1039" s="8"/>
     </row>
     <row r="1040" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1040" s="9"/>
+      <c r="I1040" s="8"/>
     </row>
     <row r="1041" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1041" s="9"/>
+      <c r="I1041" s="8"/>
     </row>
     <row r="1042" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1042" s="9"/>
+      <c r="I1042" s="8"/>
     </row>
     <row r="1043" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1043" s="9"/>
+      <c r="I1043" s="8"/>
     </row>
     <row r="1044" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1044" s="9"/>
+      <c r="I1044" s="8"/>
     </row>
     <row r="1045" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1045" s="9"/>
+      <c r="I1045" s="8"/>
     </row>
     <row r="1046" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1046" s="9"/>
+      <c r="I1046" s="8"/>
     </row>
     <row r="1047" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1047" s="9"/>
+      <c r="I1047" s="8"/>
     </row>
     <row r="1048" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1048" s="9"/>
+      <c r="I1048" s="8"/>
     </row>
     <row r="1049" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1049" s="9"/>
+      <c r="I1049" s="8"/>
     </row>
     <row r="1050" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1050" s="9"/>
+      <c r="I1050" s="8"/>
     </row>
     <row r="1051" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1051" s="9"/>
+      <c r="I1051" s="8"/>
     </row>
     <row r="1052" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1052" s="9"/>
+      <c r="I1052" s="8"/>
     </row>
     <row r="1053" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1053" s="9"/>
+      <c r="I1053" s="8"/>
     </row>
     <row r="1054" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1054" s="9"/>
+      <c r="I1054" s="8"/>
     </row>
     <row r="1055" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1055" s="9"/>
+      <c r="I1055" s="8"/>
     </row>
     <row r="1056" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1056" s="9"/>
+      <c r="I1056" s="8"/>
     </row>
     <row r="1057" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1057" s="9"/>
+      <c r="I1057" s="8"/>
     </row>
     <row r="1058" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1058" s="9"/>
+      <c r="I1058" s="8"/>
     </row>
     <row r="1059" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1059" s="9"/>
+      <c r="I1059" s="8"/>
     </row>
     <row r="1060" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1060" s="9"/>
+      <c r="I1060" s="8"/>
     </row>
     <row r="1061" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1061" s="9"/>
+      <c r="I1061" s="8"/>
     </row>
     <row r="1062" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1062" s="9"/>
+      <c r="I1062" s="8"/>
     </row>
     <row r="1063" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1063" s="9"/>
+      <c r="I1063" s="8"/>
     </row>
     <row r="1064" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1064" s="9"/>
+      <c r="I1064" s="8"/>
     </row>
     <row r="1065" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1065" s="9"/>
+      <c r="I1065" s="8"/>
     </row>
     <row r="1066" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1066" s="9"/>
+      <c r="I1066" s="8"/>
     </row>
     <row r="1067" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1067" s="9"/>
+      <c r="I1067" s="8"/>
     </row>
     <row r="1068" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1068" s="9"/>
+      <c r="I1068" s="8"/>
     </row>
     <row r="1069" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1069" s="9"/>
+      <c r="I1069" s="8"/>
     </row>
     <row r="1070" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1070" s="9"/>
+      <c r="I1070" s="8"/>
     </row>
     <row r="1071" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1071" s="9"/>
+      <c r="I1071" s="8"/>
     </row>
     <row r="1072" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1072" s="9"/>
+      <c r="I1072" s="8"/>
     </row>
     <row r="1073" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1073" s="9"/>
+      <c r="I1073" s="8"/>
     </row>
     <row r="1074" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1074" s="9"/>
+      <c r="I1074" s="8"/>
     </row>
     <row r="1075" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1075" s="9"/>
+      <c r="I1075" s="8"/>
     </row>
     <row r="1076" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1076" s="9"/>
+      <c r="I1076" s="8"/>
     </row>
     <row r="1077" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1077" s="9"/>
+      <c r="I1077" s="8"/>
     </row>
     <row r="1078" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1078" s="9"/>
+      <c r="I1078" s="8"/>
     </row>
     <row r="1079" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1079" s="9"/>
+      <c r="I1079" s="8"/>
     </row>
     <row r="1080" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1080" s="9"/>
+      <c r="I1080" s="8"/>
     </row>
     <row r="1081" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1081" s="9"/>
+      <c r="I1081" s="8"/>
     </row>
     <row r="1082" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1082" s="9"/>
+      <c r="I1082" s="8"/>
     </row>
     <row r="1083" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1083" s="9"/>
+      <c r="I1083" s="8"/>
     </row>
     <row r="1084" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1084" s="9"/>
+      <c r="I1084" s="8"/>
     </row>
     <row r="1085" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1085" s="9"/>
+      <c r="I1085" s="8"/>
     </row>
     <row r="1086" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1086" s="9"/>
+      <c r="I1086" s="8"/>
     </row>
     <row r="1087" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1087" s="9"/>
+      <c r="I1087" s="8"/>
     </row>
     <row r="1088" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1088" s="9"/>
+      <c r="I1088" s="8"/>
     </row>
     <row r="1089" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1089" s="9"/>
+      <c r="I1089" s="8"/>
     </row>
     <row r="1090" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1090" s="9"/>
+      <c r="I1090" s="8"/>
     </row>
     <row r="1091" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1091" s="9"/>
+      <c r="I1091" s="8"/>
     </row>
     <row r="1092" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1092" s="9"/>
+      <c r="I1092" s="8"/>
     </row>
     <row r="1093" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1093" s="9"/>
+      <c r="I1093" s="8"/>
     </row>
     <row r="1094" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1094" s="9"/>
+      <c r="I1094" s="8"/>
     </row>
     <row r="1095" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1095" s="9"/>
+      <c r="I1095" s="8"/>
     </row>
     <row r="1096" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1096" s="9"/>
+      <c r="I1096" s="8"/>
     </row>
     <row r="1097" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1097" s="9"/>
+      <c r="I1097" s="8"/>
     </row>
     <row r="1098" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1098" s="9"/>
+      <c r="I1098" s="8"/>
     </row>
     <row r="1099" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1099" s="9"/>
+      <c r="I1099" s="8"/>
     </row>
     <row r="1100" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1100" s="9"/>
+      <c r="I1100" s="8"/>
     </row>
     <row r="1101" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1101" s="9"/>
+      <c r="I1101" s="8"/>
     </row>
     <row r="1102" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1102" s="9"/>
+      <c r="I1102" s="8"/>
     </row>
     <row r="1103" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1103" s="9"/>
+      <c r="I1103" s="8"/>
     </row>
     <row r="1104" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1104" s="9"/>
+      <c r="I1104" s="8"/>
     </row>
     <row r="1105" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1105" s="9"/>
+      <c r="I1105" s="8"/>
     </row>
     <row r="1106" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1106" s="9"/>
+      <c r="I1106" s="8"/>
     </row>
     <row r="1107" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1107" s="9"/>
+      <c r="I1107" s="8"/>
     </row>
     <row r="1108" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1108" s="9"/>
+      <c r="I1108" s="8"/>
     </row>
     <row r="1109" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1109" s="9"/>
+      <c r="I1109" s="8"/>
     </row>
     <row r="1110" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1110" s="9"/>
+      <c r="I1110" s="8"/>
     </row>
     <row r="1111" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1111" s="9"/>
+      <c r="I1111" s="8"/>
     </row>
     <row r="1112" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1112" s="9"/>
+      <c r="I1112" s="8"/>
     </row>
     <row r="1113" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1113" s="9"/>
+      <c r="I1113" s="8"/>
     </row>
     <row r="1114" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1114" s="9"/>
+      <c r="I1114" s="8"/>
     </row>
     <row r="1115" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1115" s="9"/>
+      <c r="I1115" s="8"/>
     </row>
     <row r="1116" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1116" s="9"/>
+      <c r="I1116" s="8"/>
     </row>
     <row r="1117" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1117" s="9"/>
+      <c r="I1117" s="8"/>
     </row>
     <row r="1118" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1118" s="9"/>
+      <c r="I1118" s="8"/>
     </row>
     <row r="1119" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1119" s="9"/>
+      <c r="I1119" s="8"/>
     </row>
     <row r="1120" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1120" s="9"/>
+      <c r="I1120" s="8"/>
     </row>
     <row r="1121" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1121" s="9"/>
+      <c r="I1121" s="8"/>
     </row>
     <row r="1122" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1122" s="9"/>
+      <c r="I1122" s="8"/>
     </row>
     <row r="1123" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1123" s="9"/>
+      <c r="I1123" s="8"/>
     </row>
     <row r="1124" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1124" s="9"/>
+      <c r="I1124" s="8"/>
     </row>
     <row r="1125" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1125" s="9"/>
+      <c r="I1125" s="8"/>
     </row>
     <row r="1126" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1126" s="9"/>
+      <c r="I1126" s="8"/>
     </row>
     <row r="1127" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1127" s="9"/>
+      <c r="I1127" s="8"/>
     </row>
     <row r="1128" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1128" s="9"/>
+      <c r="I1128" s="8"/>
     </row>
     <row r="1129" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1129" s="9"/>
+      <c r="I1129" s="8"/>
     </row>
     <row r="1130" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1130" s="9"/>
+      <c r="I1130" s="8"/>
     </row>
     <row r="1131" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1131" s="9"/>
+      <c r="I1131" s="8"/>
     </row>
     <row r="1132" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1132" s="9"/>
+      <c r="I1132" s="8"/>
     </row>
     <row r="1133" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1133" s="9"/>
+      <c r="I1133" s="8"/>
     </row>
     <row r="1134" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1134" s="9"/>
+      <c r="I1134" s="8"/>
     </row>
     <row r="1135" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1135" s="9"/>
+      <c r="I1135" s="8"/>
     </row>
     <row r="1136" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1136" s="9"/>
+      <c r="I1136" s="8"/>
     </row>
     <row r="1137" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1137" s="9"/>
+      <c r="I1137" s="8"/>
     </row>
     <row r="1138" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1138" s="9"/>
+      <c r="I1138" s="8"/>
     </row>
     <row r="1139" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1139" s="9"/>
+      <c r="I1139" s="8"/>
     </row>
     <row r="1140" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1140" s="9"/>
+      <c r="I1140" s="8"/>
     </row>
     <row r="1141" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1141" s="9"/>
+      <c r="I1141" s="8"/>
     </row>
     <row r="1142" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1142" s="9"/>
+      <c r="I1142" s="8"/>
     </row>
     <row r="1143" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1143" s="9"/>
+      <c r="I1143" s="8"/>
     </row>
     <row r="1144" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1144" s="9"/>
+      <c r="I1144" s="8"/>
     </row>
     <row r="1145" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1145" s="9"/>
+      <c r="I1145" s="8"/>
     </row>
     <row r="1146" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1146" s="9"/>
+      <c r="I1146" s="8"/>
     </row>
     <row r="1147" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1147" s="9"/>
+      <c r="I1147" s="8"/>
     </row>
     <row r="1148" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1148" s="9"/>
+      <c r="I1148" s="8"/>
     </row>
     <row r="1149" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1149" s="9"/>
+      <c r="I1149" s="8"/>
     </row>
     <row r="1150" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1150" s="9"/>
+      <c r="I1150" s="8"/>
     </row>
     <row r="1151" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1151" s="9"/>
+      <c r="I1151" s="8"/>
     </row>
     <row r="1152" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1152" s="9"/>
+      <c r="I1152" s="8"/>
     </row>
     <row r="1153" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1153" s="9"/>
+      <c r="I1153" s="8"/>
     </row>
     <row r="1154" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1154" s="9"/>
+      <c r="I1154" s="8"/>
     </row>
     <row r="1155" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1155" s="9"/>
+      <c r="I1155" s="8"/>
     </row>
     <row r="1156" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1156" s="9"/>
+      <c r="I1156" s="8"/>
     </row>
     <row r="1157" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1157" s="9"/>
+      <c r="I1157" s="8"/>
     </row>
     <row r="1158" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1158" s="9"/>
+      <c r="I1158" s="8"/>
     </row>
     <row r="1159" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1159" s="9"/>
+      <c r="I1159" s="8"/>
     </row>
     <row r="1160" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1160" s="9"/>
+      <c r="I1160" s="8"/>
     </row>
     <row r="1161" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1161" s="9"/>
+      <c r="I1161" s="8"/>
     </row>
     <row r="1162" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1162" s="9"/>
+      <c r="I1162" s="8"/>
     </row>
     <row r="1163" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1163" s="9"/>
+      <c r="I1163" s="8"/>
     </row>
     <row r="1164" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1164" s="9"/>
+      <c r="I1164" s="8"/>
     </row>
     <row r="1165" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1165" s="9"/>
+      <c r="I1165" s="8"/>
     </row>
     <row r="1166" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1166" s="9"/>
+      <c r="I1166" s="8"/>
     </row>
     <row r="1167" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1167" s="9"/>
+      <c r="I1167" s="8"/>
     </row>
     <row r="1168" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1168" s="9"/>
+      <c r="I1168" s="8"/>
     </row>
     <row r="1169" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1169" s="9"/>
+      <c r="I1169" s="8"/>
     </row>
     <row r="1170" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1170" s="9"/>
+      <c r="I1170" s="8"/>
     </row>
     <row r="1171" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1171" s="9"/>
+      <c r="I1171" s="8"/>
     </row>
     <row r="1172" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1172" s="9"/>
+      <c r="I1172" s="8"/>
     </row>
     <row r="1173" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1173" s="9"/>
+      <c r="I1173" s="8"/>
     </row>
     <row r="1174" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1174" s="9"/>
+      <c r="I1174" s="8"/>
     </row>
     <row r="1175" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1175" s="9"/>
+      <c r="I1175" s="8"/>
     </row>
     <row r="1176" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1176" s="9"/>
+      <c r="I1176" s="8"/>
     </row>
     <row r="1177" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1177" s="9"/>
+      <c r="I1177" s="8"/>
     </row>
     <row r="1178" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1178" s="9"/>
+      <c r="I1178" s="8"/>
     </row>
     <row r="1179" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1179" s="9"/>
+      <c r="I1179" s="8"/>
     </row>
     <row r="1180" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1180" s="9"/>
+      <c r="I1180" s="8"/>
     </row>
     <row r="1181" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1181" s="9"/>
+      <c r="I1181" s="8"/>
     </row>
     <row r="1182" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1182" s="9"/>
+      <c r="I1182" s="8"/>
     </row>
     <row r="1183" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1183" s="9"/>
+      <c r="I1183" s="8"/>
     </row>
     <row r="1184" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1184" s="9"/>
+      <c r="I1184" s="8"/>
     </row>
     <row r="1185" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1185" s="9"/>
+      <c r="I1185" s="8"/>
     </row>
     <row r="1186" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1186" s="9"/>
+      <c r="I1186" s="8"/>
     </row>
     <row r="1187" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1187" s="9"/>
+      <c r="I1187" s="8"/>
     </row>
     <row r="1188" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1188" s="9"/>
+      <c r="I1188" s="8"/>
     </row>
     <row r="1189" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1189" s="9"/>
+      <c r="I1189" s="8"/>
     </row>
     <row r="1190" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1190" s="9"/>
+      <c r="I1190" s="8"/>
     </row>
     <row r="1191" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1191" s="9"/>
+      <c r="I1191" s="8"/>
     </row>
     <row r="1192" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1192" s="9"/>
+      <c r="I1192" s="8"/>
     </row>
     <row r="1193" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1193" s="9"/>
+      <c r="I1193" s="8"/>
     </row>
     <row r="1194" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1194" s="9"/>
+      <c r="I1194" s="8"/>
     </row>
     <row r="1195" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1195" s="9"/>
+      <c r="I1195" s="8"/>
     </row>
     <row r="1196" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1196" s="9"/>
+      <c r="I1196" s="8"/>
     </row>
     <row r="1197" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1197" s="9"/>
+      <c r="I1197" s="8"/>
     </row>
     <row r="1198" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1198" s="9"/>
+      <c r="I1198" s="8"/>
     </row>
     <row r="1199" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1199" s="9"/>
+      <c r="I1199" s="8"/>
     </row>
     <row r="1200" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1200" s="9"/>
+      <c r="I1200" s="8"/>
     </row>
     <row r="1201" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1201" s="9"/>
+      <c r="I1201" s="8"/>
     </row>
     <row r="1202" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1202" s="9"/>
+      <c r="I1202" s="8"/>
     </row>
     <row r="1203" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1203" s="9"/>
+      <c r="I1203" s="8"/>
     </row>
     <row r="1204" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1204" s="9"/>
+      <c r="I1204" s="8"/>
     </row>
     <row r="1205" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1205" s="9"/>
+      <c r="I1205" s="8"/>
     </row>
     <row r="1206" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1206" s="9"/>
+      <c r="I1206" s="8"/>
     </row>
     <row r="1207" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1207" s="9"/>
+      <c r="I1207" s="8"/>
     </row>
     <row r="1208" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1208" s="9"/>
+      <c r="I1208" s="8"/>
     </row>
     <row r="1209" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1209" s="9"/>
+      <c r="I1209" s="8"/>
     </row>
     <row r="1210" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1210" s="9"/>
+      <c r="I1210" s="8"/>
     </row>
     <row r="1211" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1211" s="9"/>
+      <c r="I1211" s="8"/>
     </row>
     <row r="1212" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1212" s="9"/>
+      <c r="I1212" s="8"/>
     </row>
     <row r="1213" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1213" s="9"/>
+      <c r="I1213" s="8"/>
     </row>
     <row r="1214" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1214" s="9"/>
+      <c r="I1214" s="8"/>
     </row>
     <row r="1215" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1215" s="9"/>
+      <c r="I1215" s="8"/>
     </row>
     <row r="1216" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1216" s="9"/>
+      <c r="I1216" s="8"/>
     </row>
     <row r="1217" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1217" s="9"/>
+      <c r="I1217" s="8"/>
     </row>
     <row r="1218" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1218" s="9"/>
+      <c r="I1218" s="8"/>
     </row>
     <row r="1219" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1219" s="9"/>
+      <c r="I1219" s="8"/>
     </row>
     <row r="1220" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1220" s="9"/>
+      <c r="I1220" s="8"/>
     </row>
     <row r="1221" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1221" s="9"/>
+      <c r="I1221" s="8"/>
     </row>
     <row r="1222" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1222" s="9"/>
+      <c r="I1222" s="8"/>
     </row>
     <row r="1223" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1223" s="9"/>
+      <c r="I1223" s="8"/>
     </row>
     <row r="1224" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1224" s="9"/>
+      <c r="I1224" s="8"/>
     </row>
     <row r="1225" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1225" s="9"/>
+      <c r="I1225" s="8"/>
     </row>
     <row r="1226" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1226" s="9"/>
+      <c r="I1226" s="8"/>
     </row>
     <row r="1227" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1227" s="9"/>
+      <c r="I1227" s="8"/>
     </row>
     <row r="1228" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1228" s="9"/>
+      <c r="I1228" s="8"/>
     </row>
     <row r="1229" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1229" s="9"/>
+      <c r="I1229" s="8"/>
     </row>
     <row r="1230" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1230" s="9"/>
+      <c r="I1230" s="8"/>
     </row>
     <row r="1231" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1231" s="9"/>
+      <c r="I1231" s="8"/>
     </row>
     <row r="1232" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1232" s="9"/>
+      <c r="I1232" s="8"/>
     </row>
     <row r="1233" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1233" s="9"/>
+      <c r="I1233" s="8"/>
     </row>
     <row r="1234" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1234" s="9"/>
+      <c r="I1234" s="8"/>
     </row>
     <row r="1235" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1235" s="9"/>
+      <c r="I1235" s="8"/>
     </row>
     <row r="1236" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1236" s="9"/>
+      <c r="I1236" s="8"/>
     </row>
     <row r="1237" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1237" s="9"/>
+      <c r="I1237" s="8"/>
     </row>
     <row r="1238" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1238" s="9"/>
+      <c r="I1238" s="8"/>
     </row>
     <row r="1239" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1239" s="9"/>
+      <c r="I1239" s="8"/>
     </row>
     <row r="1240" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1240" s="9"/>
+      <c r="I1240" s="8"/>
     </row>
     <row r="1241" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1241" s="9"/>
+      <c r="I1241" s="8"/>
     </row>
     <row r="1242" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1242" s="9"/>
+      <c r="I1242" s="8"/>
     </row>
     <row r="1243" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1243" s="9"/>
+      <c r="I1243" s="8"/>
     </row>
     <row r="1244" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1244" s="9"/>
+      <c r="I1244" s="8"/>
     </row>
     <row r="1245" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1245" s="9"/>
+      <c r="I1245" s="8"/>
     </row>
     <row r="1246" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1246" s="9"/>
+      <c r="I1246" s="8"/>
     </row>
     <row r="1247" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1247" s="9"/>
+      <c r="I1247" s="8"/>
     </row>
     <row r="1248" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1248" s="9"/>
+      <c r="I1248" s="8"/>
     </row>
     <row r="1249" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1249" s="9"/>
+      <c r="I1249" s="8"/>
     </row>
     <row r="1250" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1250" s="9"/>
+      <c r="I1250" s="8"/>
     </row>
     <row r="1251" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1251" s="9"/>
+      <c r="I1251" s="8"/>
     </row>
     <row r="1252" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1252" s="9"/>
+      <c r="I1252" s="8"/>
     </row>
     <row r="1253" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1253" s="9"/>
+      <c r="I1253" s="8"/>
     </row>
     <row r="1254" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1254" s="9"/>
+      <c r="I1254" s="8"/>
     </row>
     <row r="1255" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1255" s="9"/>
+      <c r="I1255" s="8"/>
     </row>
     <row r="1256" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1256" s="9"/>
+      <c r="I1256" s="8"/>
     </row>
     <row r="1257" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1257" s="9"/>
+      <c r="I1257" s="8"/>
     </row>
     <row r="1258" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1258" s="9"/>
+      <c r="I1258" s="8"/>
     </row>
     <row r="1259" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1259" s="9"/>
+      <c r="I1259" s="8"/>
     </row>
     <row r="1260" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1260" s="9"/>
+      <c r="I1260" s="8"/>
     </row>
     <row r="1261" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1261" s="9"/>
+      <c r="I1261" s="8"/>
     </row>
     <row r="1262" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1262" s="9"/>
+      <c r="I1262" s="8"/>
     </row>
     <row r="1263" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1263" s="9"/>
+      <c r="I1263" s="8"/>
     </row>
     <row r="1264" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1264" s="9"/>
+      <c r="I1264" s="8"/>
     </row>
     <row r="1265" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1265" s="9"/>
+      <c r="I1265" s="8"/>
     </row>
     <row r="1266" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1266" s="9"/>
+      <c r="I1266" s="8"/>
     </row>
     <row r="1267" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1267" s="9"/>
+      <c r="I1267" s="8"/>
     </row>
     <row r="1268" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1268" s="9"/>
+      <c r="I1268" s="8"/>
     </row>
     <row r="1269" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1269" s="9"/>
+      <c r="I1269" s="8"/>
     </row>
     <row r="1270" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1270" s="9"/>
+      <c r="I1270" s="8"/>
     </row>
     <row r="1271" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1271" s="9"/>
+      <c r="I1271" s="8"/>
     </row>
     <row r="1272" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1272" s="9"/>
+      <c r="I1272" s="8"/>
     </row>
     <row r="1273" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1273" s="9"/>
+      <c r="I1273" s="8"/>
     </row>
     <row r="1274" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1274" s="9"/>
+      <c r="I1274" s="8"/>
     </row>
     <row r="1275" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1275" s="9"/>
+      <c r="I1275" s="8"/>
     </row>
     <row r="1276" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1276" s="9"/>
+      <c r="I1276" s="8"/>
     </row>
     <row r="1277" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1277" s="9"/>
+      <c r="I1277" s="8"/>
     </row>
     <row r="1278" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1278" s="9"/>
+      <c r="I1278" s="8"/>
     </row>
     <row r="1279" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1279" s="9"/>
+      <c r="I1279" s="8"/>
     </row>
     <row r="1280" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1280" s="9"/>
+      <c r="I1280" s="8"/>
     </row>
     <row r="1281" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1281" s="9"/>
+      <c r="I1281" s="8"/>
     </row>
     <row r="1282" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1282" s="9"/>
+      <c r="I1282" s="8"/>
     </row>
     <row r="1283" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1283" s="9"/>
+      <c r="I1283" s="8"/>
     </row>
     <row r="1284" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1284" s="9"/>
+      <c r="I1284" s="8"/>
     </row>
     <row r="1285" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1285" s="9"/>
+      <c r="I1285" s="8"/>
     </row>
     <row r="1286" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1286" s="9"/>
+      <c r="I1286" s="8"/>
     </row>
     <row r="1287" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1287" s="9"/>
+      <c r="I1287" s="8"/>
     </row>
     <row r="1288" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1288" s="9"/>
+      <c r="I1288" s="8"/>
     </row>
     <row r="1289" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1289" s="9"/>
+      <c r="I1289" s="8"/>
     </row>
     <row r="1290" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1290" s="9"/>
+      <c r="I1290" s="8"/>
     </row>
     <row r="1291" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1291" s="9"/>
+      <c r="I1291" s="8"/>
     </row>
     <row r="1292" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1292" s="9"/>
+      <c r="I1292" s="8"/>
     </row>
     <row r="1293" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1293" s="9"/>
+      <c r="I1293" s="8"/>
     </row>
     <row r="1294" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1294" s="9"/>
+      <c r="I1294" s="8"/>
     </row>
     <row r="1295" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1295" s="9"/>
+      <c r="I1295" s="8"/>
     </row>
     <row r="1296" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1296" s="9"/>
+      <c r="I1296" s="8"/>
     </row>
     <row r="1297" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1297" s="9"/>
+      <c r="I1297" s="8"/>
     </row>
     <row r="1298" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1298" s="9"/>
+      <c r="I1298" s="8"/>
     </row>
     <row r="1299" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1299" s="9"/>
+      <c r="I1299" s="8"/>
     </row>
     <row r="1300" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1300" s="9"/>
+      <c r="I1300" s="8"/>
     </row>
     <row r="1301" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1301" s="9"/>
+      <c r="I1301" s="8"/>
     </row>
     <row r="1302" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1302" s="9"/>
+      <c r="I1302" s="8"/>
     </row>
     <row r="1303" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1303" s="9"/>
+      <c r="I1303" s="8"/>
     </row>
     <row r="1304" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1304" s="9"/>
+      <c r="I1304" s="8"/>
     </row>
     <row r="1305" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1305" s="9"/>
+      <c r="I1305" s="8"/>
     </row>
     <row r="1306" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1306" s="9"/>
+      <c r="I1306" s="8"/>
     </row>
     <row r="1307" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1307" s="9"/>
+      <c r="I1307" s="8"/>
     </row>
     <row r="1308" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1308" s="9"/>
+      <c r="I1308" s="8"/>
     </row>
     <row r="1309" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1309" s="9"/>
+      <c r="I1309" s="8"/>
     </row>
     <row r="1310" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1310" s="9"/>
+      <c r="I1310" s="8"/>
     </row>
     <row r="1311" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1311" s="9"/>
+      <c r="I1311" s="8"/>
     </row>
     <row r="1312" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1312" s="9"/>
+      <c r="I1312" s="8"/>
     </row>
     <row r="1313" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1313" s="9"/>
+      <c r="I1313" s="8"/>
     </row>
     <row r="1314" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1314" s="9"/>
+      <c r="I1314" s="8"/>
     </row>
     <row r="1315" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1315" s="9"/>
+      <c r="I1315" s="8"/>
     </row>
     <row r="1316" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1316" s="9"/>
+      <c r="I1316" s="8"/>
     </row>
     <row r="1317" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1317" s="9"/>
+      <c r="I1317" s="8"/>
     </row>
     <row r="1318" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1318" s="9"/>
+      <c r="I1318" s="8"/>
     </row>
     <row r="1319" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1319" s="9"/>
+      <c r="I1319" s="8"/>
     </row>
     <row r="1320" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1320" s="9"/>
+      <c r="I1320" s="8"/>
     </row>
     <row r="1321" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1321" s="9"/>
+      <c r="I1321" s="8"/>
     </row>
     <row r="1322" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1322" s="9"/>
+      <c r="I1322" s="8"/>
     </row>
     <row r="1323" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1323" s="9"/>
+      <c r="I1323" s="8"/>
     </row>
     <row r="1324" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1324" s="9"/>
+      <c r="I1324" s="8"/>
     </row>
     <row r="1325" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1325" s="9"/>
+      <c r="I1325" s="8"/>
     </row>
     <row r="1326" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1326" s="9"/>
+      <c r="I1326" s="8"/>
     </row>
     <row r="1327" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1327" s="9"/>
+      <c r="I1327" s="8"/>
     </row>
     <row r="1328" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1328" s="9"/>
+      <c r="I1328" s="8"/>
     </row>
     <row r="1329" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1329" s="9"/>
+      <c r="I1329" s="8"/>
     </row>
     <row r="1330" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1330" s="9"/>
+      <c r="I1330" s="8"/>
     </row>
     <row r="1331" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1331" s="9"/>
+      <c r="I1331" s="8"/>
     </row>
     <row r="1332" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1332" s="9"/>
+      <c r="I1332" s="8"/>
     </row>
     <row r="1333" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1333" s="9"/>
+      <c r="I1333" s="8"/>
     </row>
     <row r="1334" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1334" s="9"/>
+      <c r="I1334" s="8"/>
     </row>
     <row r="1335" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1335" s="9"/>
+      <c r="I1335" s="8"/>
     </row>
     <row r="1336" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1336" s="9"/>
+      <c r="I1336" s="8"/>
     </row>
     <row r="1337" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1337" s="9"/>
+      <c r="I1337" s="8"/>
     </row>
     <row r="1338" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1338" s="9"/>
+      <c r="I1338" s="8"/>
     </row>
     <row r="1339" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1339" s="9"/>
+      <c r="I1339" s="8"/>
     </row>
     <row r="1340" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1340" s="9"/>
+      <c r="I1340" s="8"/>
     </row>
     <row r="1341" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1341" s="9"/>
+      <c r="I1341" s="8"/>
     </row>
     <row r="1342" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1342" s="9"/>
+      <c r="I1342" s="8"/>
     </row>
     <row r="1343" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1343" s="9"/>
+      <c r="I1343" s="8"/>
     </row>
     <row r="1344" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1344" s="9"/>
+      <c r="I1344" s="8"/>
     </row>
     <row r="1345" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1345" s="9"/>
+      <c r="I1345" s="8"/>
     </row>
     <row r="1346" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1346" s="9"/>
+      <c r="I1346" s="8"/>
     </row>
     <row r="1347" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1347" s="9"/>
+      <c r="I1347" s="8"/>
     </row>
     <row r="1348" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1348" s="9"/>
+      <c r="I1348" s="8"/>
     </row>
     <row r="1349" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1349" s="9"/>
+      <c r="I1349" s="8"/>
     </row>
     <row r="1350" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1350" s="9"/>
+      <c r="I1350" s="8"/>
     </row>
     <row r="1351" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1351" s="9"/>
+      <c r="I1351" s="8"/>
     </row>
     <row r="1352" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1352" s="9"/>
+      <c r="I1352" s="8"/>
     </row>
     <row r="1353" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1353" s="9"/>
+      <c r="I1353" s="8"/>
     </row>
     <row r="1354" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1354" s="9"/>
+      <c r="I1354" s="8"/>
     </row>
     <row r="1355" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1355" s="9"/>
+      <c r="I1355" s="8"/>
     </row>
     <row r="1356" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1356" s="9"/>
+      <c r="I1356" s="8"/>
     </row>
     <row r="1357" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1357" s="9"/>
+      <c r="I1357" s="8"/>
     </row>
     <row r="1358" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1358" s="9"/>
+      <c r="I1358" s="8"/>
     </row>
     <row r="1359" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1359" s="9"/>
+      <c r="I1359" s="8"/>
     </row>
     <row r="1360" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1360" s="9"/>
+      <c r="I1360" s="8"/>
     </row>
     <row r="1361" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1361" s="9"/>
+      <c r="I1361" s="8"/>
     </row>
     <row r="1362" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1362" s="9"/>
+      <c r="I1362" s="8"/>
     </row>
     <row r="1363" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1363" s="9"/>
+      <c r="I1363" s="8"/>
     </row>
     <row r="1364" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1364" s="9"/>
+      <c r="I1364" s="8"/>
     </row>
     <row r="1365" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1365" s="9"/>
+      <c r="I1365" s="8"/>
     </row>
     <row r="1366" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1366" s="9"/>
+      <c r="I1366" s="8"/>
     </row>
     <row r="1367" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1367" s="9"/>
+      <c r="I1367" s="8"/>
     </row>
     <row r="1368" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1368" s="9"/>
+      <c r="I1368" s="8"/>
     </row>
     <row r="1369" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1369" s="9"/>
+      <c r="I1369" s="8"/>
     </row>
     <row r="1370" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1370" s="9"/>
+      <c r="I1370" s="8"/>
     </row>
     <row r="1371" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1371" s="9"/>
+      <c r="I1371" s="8"/>
     </row>
     <row r="1372" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1372" s="9"/>
+      <c r="I1372" s="8"/>
     </row>
     <row r="1373" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1373" s="9"/>
+      <c r="I1373" s="8"/>
     </row>
     <row r="1374" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1374" s="9"/>
+      <c r="I1374" s="8"/>
     </row>
     <row r="1375" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1375" s="9"/>
+      <c r="I1375" s="8"/>
     </row>
     <row r="1376" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1376" s="9"/>
+      <c r="I1376" s="8"/>
     </row>
     <row r="1377" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1377" s="9"/>
+      <c r="I1377" s="8"/>
     </row>
     <row r="1378" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1378" s="9"/>
+      <c r="I1378" s="8"/>
     </row>
     <row r="1379" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1379" s="9"/>
+      <c r="I1379" s="8"/>
     </row>
     <row r="1380" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1380" s="9"/>
+      <c r="I1380" s="8"/>
     </row>
     <row r="1381" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1381" s="9"/>
+      <c r="I1381" s="8"/>
     </row>
     <row r="1382" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1382" s="9"/>
+      <c r="I1382" s="8"/>
     </row>
     <row r="1383" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1383" s="9"/>
+      <c r="I1383" s="8"/>
     </row>
     <row r="1384" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1384" s="9"/>
+      <c r="I1384" s="8"/>
     </row>
     <row r="1385" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1385" s="9"/>
+      <c r="I1385" s="8"/>
     </row>
     <row r="1386" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1386" s="9"/>
+      <c r="I1386" s="8"/>
     </row>
     <row r="1387" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1387" s="9"/>
+      <c r="I1387" s="8"/>
     </row>
     <row r="1388" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1388" s="9"/>
+      <c r="I1388" s="8"/>
     </row>
     <row r="1389" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1389" s="9"/>
+      <c r="I1389" s="8"/>
     </row>
     <row r="1390" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1390" s="9"/>
+      <c r="I1390" s="8"/>
     </row>
     <row r="1391" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1391" s="9"/>
+      <c r="I1391" s="8"/>
     </row>
     <row r="1392" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1392" s="9"/>
+      <c r="I1392" s="8"/>
     </row>
     <row r="1393" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1393" s="9"/>
+      <c r="I1393" s="8"/>
     </row>
     <row r="1394" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1394" s="9"/>
+      <c r="I1394" s="8"/>
     </row>
     <row r="1395" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1395" s="9"/>
+      <c r="I1395" s="8"/>
     </row>
     <row r="1396" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1396" s="9"/>
+      <c r="I1396" s="8"/>
     </row>
     <row r="1397" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1397" s="9"/>
+      <c r="I1397" s="8"/>
     </row>
     <row r="1398" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1398" s="9"/>
+      <c r="I1398" s="8"/>
     </row>
     <row r="1399" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1399" s="9"/>
+      <c r="I1399" s="8"/>
     </row>
     <row r="1400" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1400" s="9"/>
+      <c r="I1400" s="8"/>
     </row>
     <row r="1401" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1401" s="9"/>
+      <c r="I1401" s="8"/>
     </row>
     <row r="1402" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1402" s="9"/>
+      <c r="I1402" s="8"/>
     </row>
     <row r="1403" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1403" s="9"/>
+      <c r="I1403" s="8"/>
     </row>
     <row r="1404" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1404" s="9"/>
+      <c r="I1404" s="8"/>
     </row>
     <row r="1405" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1405" s="9"/>
+      <c r="I1405" s="8"/>
     </row>
     <row r="1406" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1406" s="9"/>
+      <c r="I1406" s="8"/>
     </row>
     <row r="1407" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1407" s="9"/>
+      <c r="I1407" s="8"/>
     </row>
     <row r="1408" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1408" s="9"/>
+      <c r="I1408" s="8"/>
     </row>
     <row r="1409" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1409" s="9"/>
+      <c r="I1409" s="8"/>
     </row>
     <row r="1410" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1410" s="9"/>
+      <c r="I1410" s="8"/>
     </row>
     <row r="1411" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1411" s="9"/>
+      <c r="I1411" s="8"/>
     </row>
     <row r="1412" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1412" s="9"/>
+      <c r="I1412" s="8"/>
     </row>
     <row r="1413" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1413" s="9"/>
+      <c r="I1413" s="8"/>
     </row>
     <row r="1414" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1414" s="9"/>
+      <c r="I1414" s="8"/>
     </row>
     <row r="1415" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1415" s="9"/>
+      <c r="I1415" s="8"/>
     </row>
     <row r="1416" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1416" s="9"/>
+      <c r="I1416" s="8"/>
     </row>
     <row r="1417" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1417" s="9"/>
+      <c r="I1417" s="8"/>
     </row>
     <row r="1418" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1418" s="9"/>
+      <c r="I1418" s="8"/>
     </row>
     <row r="1419" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1419" s="9"/>
+      <c r="I1419" s="8"/>
     </row>
     <row r="1420" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1420" s="9"/>
+      <c r="I1420" s="8"/>
     </row>
     <row r="1421" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1421" s="9"/>
+      <c r="I1421" s="8"/>
     </row>
     <row r="1422" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1422" s="9"/>
+      <c r="I1422" s="8"/>
     </row>
     <row r="1423" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1423" s="9"/>
+      <c r="I1423" s="8"/>
     </row>
     <row r="1424" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1424" s="9"/>
+      <c r="I1424" s="8"/>
     </row>
     <row r="1425" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1425" s="9"/>
+      <c r="I1425" s="8"/>
     </row>
     <row r="1426" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1426" s="9"/>
+      <c r="I1426" s="8"/>
     </row>
     <row r="1427" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1427" s="9"/>
+      <c r="I1427" s="8"/>
     </row>
     <row r="1428" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1428" s="9"/>
+      <c r="I1428" s="8"/>
     </row>
     <row r="1429" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1429" s="9"/>
+      <c r="I1429" s="8"/>
     </row>
     <row r="1430" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1430" s="9"/>
+      <c r="I1430" s="8"/>
     </row>
     <row r="1431" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1431" s="9"/>
+      <c r="I1431" s="8"/>
     </row>
     <row r="1432" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1432" s="9"/>
+      <c r="I1432" s="8"/>
     </row>
     <row r="1433" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1433" s="9"/>
+      <c r="I1433" s="8"/>
     </row>
     <row r="1434" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1434" s="9"/>
+      <c r="I1434" s="8"/>
     </row>
     <row r="1435" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1435" s="9"/>
+      <c r="I1435" s="8"/>
     </row>
     <row r="1436" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1436" s="9"/>
+      <c r="I1436" s="8"/>
     </row>
     <row r="1437" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1437" s="9"/>
+      <c r="I1437" s="8"/>
     </row>
     <row r="1438" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1438" s="9"/>
+      <c r="I1438" s="8"/>
     </row>
     <row r="1439" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1439" s="9"/>
+      <c r="I1439" s="8"/>
     </row>
     <row r="1440" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1440" s="9"/>
+      <c r="I1440" s="8"/>
     </row>
     <row r="1441" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1441" s="9"/>
+      <c r="I1441" s="8"/>
     </row>
     <row r="1442" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1442" s="9"/>
+      <c r="I1442" s="8"/>
     </row>
     <row r="1443" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1443" s="9"/>
+      <c r="I1443" s="8"/>
     </row>
     <row r="1444" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1444" s="9"/>
+      <c r="I1444" s="8"/>
     </row>
     <row r="1445" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1445" s="9"/>
+      <c r="I1445" s="8"/>
     </row>
     <row r="1446" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1446" s="9"/>
+      <c r="I1446" s="8"/>
     </row>
     <row r="1447" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1447" s="9"/>
+      <c r="I1447" s="8"/>
     </row>
     <row r="1448" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1448" s="9"/>
+      <c r="I1448" s="8"/>
     </row>
     <row r="1449" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1449" s="9"/>
+      <c r="I1449" s="8"/>
     </row>
     <row r="1450" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1450" s="9"/>
+      <c r="I1450" s="8"/>
     </row>
     <row r="1451" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1451" s="9"/>
+      <c r="I1451" s="8"/>
     </row>
     <row r="1452" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1452" s="9"/>
+      <c r="I1452" s="8"/>
     </row>
     <row r="1453" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1453" s="9"/>
+      <c r="I1453" s="8"/>
     </row>
     <row r="1454" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1454" s="9"/>
+      <c r="I1454" s="8"/>
     </row>
     <row r="1455" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1455" s="9"/>
+      <c r="I1455" s="8"/>
     </row>
     <row r="1456" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1456" s="9"/>
+      <c r="I1456" s="8"/>
     </row>
     <row r="1457" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1457" s="9"/>
+      <c r="I1457" s="8"/>
     </row>
     <row r="1458" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1458" s="9"/>
+      <c r="I1458" s="8"/>
     </row>
     <row r="1459" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1459" s="9"/>
+      <c r="I1459" s="8"/>
     </row>
     <row r="1460" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1460" s="9"/>
+      <c r="I1460" s="8"/>
     </row>
     <row r="1461" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1461" s="9"/>
+      <c r="I1461" s="8"/>
     </row>
     <row r="1462" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1462" s="9"/>
+      <c r="I1462" s="8"/>
     </row>
     <row r="1463" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1463" s="9"/>
+      <c r="I1463" s="8"/>
     </row>
     <row r="1464" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1464" s="9"/>
+      <c r="I1464" s="8"/>
     </row>
     <row r="1465" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1465" s="9"/>
+      <c r="I1465" s="8"/>
     </row>
     <row r="1466" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1466" s="9"/>
+      <c r="I1466" s="8"/>
     </row>
     <row r="1467" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1467" s="9"/>
+      <c r="I1467" s="8"/>
     </row>
     <row r="1468" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1468" s="9"/>
+      <c r="I1468" s="8"/>
     </row>
     <row r="1469" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1469" s="9"/>
+      <c r="I1469" s="8"/>
     </row>
     <row r="1470" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1470" s="9"/>
+      <c r="I1470" s="8"/>
     </row>
     <row r="1471" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1471" s="9"/>
+      <c r="I1471" s="8"/>
     </row>
     <row r="1472" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1472" s="9"/>
+      <c r="I1472" s="8"/>
     </row>
     <row r="1473" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1473" s="9"/>
+      <c r="I1473" s="8"/>
     </row>
     <row r="1474" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1474" s="9"/>
+      <c r="I1474" s="8"/>
     </row>
     <row r="1475" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1475" s="9"/>
+      <c r="I1475" s="8"/>
     </row>
     <row r="1476" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1476" s="9"/>
+      <c r="I1476" s="8"/>
     </row>
     <row r="1477" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1477" s="9"/>
+      <c r="I1477" s="8"/>
     </row>
     <row r="1478" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1478" s="9"/>
+      <c r="I1478" s="8"/>
     </row>
     <row r="1479" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1479" s="9"/>
+      <c r="I1479" s="8"/>
     </row>
     <row r="1480" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I1480" s="9"/>
+      <c r="I1480" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1480" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -5600,7 +5503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296BDD0F-6BB5-4418-9882-4A8718903251}">
   <dimension ref="A2:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5665,13 +5570,13 @@
         <f>IF(Report!B5&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B5,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5699,14 +5604,14 @@
         <f>IF(Report!B6&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B6,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f>J6-7</f>
         <v>-8</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <f>MAX('Raw Data'!J:J)-1</f>
         <v>-1</v>
       </c>
@@ -5735,14 +5640,14 @@
         <f>IF(Report!B7&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B7,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="11" t="e">
+      <c r="I7" s="10" t="e">
         <f>DATE(YEAR(J6), MONTH(J6), 1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <f>J6</f>
         <v>-1</v>
       </c>
@@ -5771,14 +5676,14 @@
         <f>IF(Report!B8&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B8,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$6, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$6, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="11" t="e">
+      <c r="I8" s="10" t="e">
         <f>DATE(YEAR(J7),1,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <f>J7</f>
         <v>-1</v>
       </c>
@@ -6063,19 +5968,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <f>SUM(C11:C19)</f>
+        <f>SUM(C5:C19)</f>
         <v>0</v>
       </c>
       <c r="D20" s="7">
-        <f>SUM(D11:D19)</f>
+        <f t="shared" ref="D20" si="0">SUM(D5:D19)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="8">
-        <f t="shared" ref="E20:F20" si="0">SUM(E11:E19)</f>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20" si="1">SUM(E5:E19)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" si="0"/>
+      <c r="F20" s="7">
+        <f t="shared" ref="F20" si="2">SUM(F5:F19)</f>
         <v>0</v>
       </c>
     </row>
@@ -6486,19 +6391,19 @@
         <v>18</v>
       </c>
       <c r="C41" s="7">
-        <f>SUM(C32:C40)</f>
+        <f>SUM(C26:C40)</f>
         <v>0</v>
       </c>
       <c r="D41" s="7">
-        <f>SUM(D32:D40)</f>
+        <f t="shared" ref="D41" si="3">SUM(D26:D40)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="8">
-        <f t="shared" ref="E41:F41" si="1">SUM(E32:E40)</f>
+      <c r="E41" s="7">
+        <f t="shared" ref="E41" si="4">SUM(E26:E40)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="8">
-        <f t="shared" si="1"/>
+      <c r="F41" s="7">
+        <f t="shared" ref="F41" si="5">SUM(F26:F40)</f>
         <v>0</v>
       </c>
     </row>
@@ -6559,23 +6464,23 @@
         <v>2</v>
       </c>
       <c r="B48" t="str" cm="1">
-        <f t="array" ref="B48">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M44:M50043),1),-1),A48),"")</f>
+        <f t="array" ref="B48">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A48),"")</f>
         <v/>
       </c>
       <c r="C48" t="str">
-        <f>IF(Report!B48&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B48,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B48&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B48,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D48" t="str">
-        <f>IF(Report!B48&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B48,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B48&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B48,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E48" t="str">
-        <f>IF(Report!B48&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B48,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B48&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B48,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F48" t="str">
-        <f>IF(Report!B48&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B48,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B48&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B48,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6584,23 +6489,23 @@
         <v>3</v>
       </c>
       <c r="B49" t="str" cm="1">
-        <f t="array" ref="B49">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M45:M50044),1),-1),A49),"")</f>
+        <f t="array" ref="B49">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A49),"")</f>
         <v/>
       </c>
       <c r="C49" t="str">
-        <f>IF(Report!B49&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B49,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B49&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B49,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D49" t="str">
-        <f>IF(Report!B49&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B49,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B49&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B49,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E49" t="str">
-        <f>IF(Report!B49&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B49,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B49&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B49,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F49" t="str">
-        <f>IF(Report!B49&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B49,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B49&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B49,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6609,23 +6514,23 @@
         <v>4</v>
       </c>
       <c r="B50" t="str" cm="1">
-        <f t="array" ref="B50">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M46:M50045),1),-1),A50),"")</f>
+        <f t="array" ref="B50">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A50),"")</f>
         <v/>
       </c>
       <c r="C50" t="str">
-        <f>IF(Report!B50&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B50,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B50&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B50,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D50" t="str">
-        <f>IF(Report!B50&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B50,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B50&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B50,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E50" t="str">
-        <f>IF(Report!B50&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B50,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B50&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B50,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F50" t="str">
-        <f>IF(Report!B50&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B50,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B50&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B50,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6634,23 +6539,23 @@
         <v>5</v>
       </c>
       <c r="B51" t="str" cm="1">
-        <f t="array" ref="B51">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M47:M50046),1),-1),A51),"")</f>
+        <f t="array" ref="B51">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A51),"")</f>
         <v/>
       </c>
       <c r="C51" t="str">
-        <f>IF(Report!B51&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B51,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B51&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B51,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D51" t="str">
-        <f>IF(Report!B51&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B51,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B51&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B51,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E51" t="str">
-        <f>IF(Report!B51&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B51,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B51&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B51,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F51" t="str">
-        <f>IF(Report!B51&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B51,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B51&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B51,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6659,23 +6564,23 @@
         <v>6</v>
       </c>
       <c r="B52" t="str" cm="1">
-        <f t="array" ref="B52">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M48:M50047),1),-1),A52),"")</f>
+        <f t="array" ref="B52">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A52),"")</f>
         <v/>
       </c>
       <c r="C52" t="str">
-        <f>IF(Report!B52&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B52,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B52&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B52,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D52" t="str">
-        <f>IF(Report!B52&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B52,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B52&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B52,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E52" t="str">
-        <f>IF(Report!B52&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B52,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B52&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B52,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F52" t="str">
-        <f>IF(Report!B52&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B52,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B52&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B52,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6684,23 +6589,23 @@
         <v>7</v>
       </c>
       <c r="B53" t="str" cm="1">
-        <f t="array" ref="B53">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M49:M50048),1),-1),A53),"")</f>
+        <f t="array" ref="B53">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A53),"")</f>
         <v/>
       </c>
       <c r="C53" t="str">
-        <f>IF(Report!B53&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B53,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B53&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B53,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D53" t="str">
-        <f>IF(Report!B53&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B53,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B53&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B53,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E53" t="str">
-        <f>IF(Report!B53&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B53,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B53&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B53,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F53" t="str">
-        <f>IF(Report!B53&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B53,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B53&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B53,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6709,23 +6614,23 @@
         <v>8</v>
       </c>
       <c r="B54" t="str" cm="1">
-        <f t="array" ref="B54">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M50:M50049),1),-1),A54),"")</f>
+        <f t="array" ref="B54">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A54),"")</f>
         <v/>
       </c>
       <c r="C54" t="str">
-        <f>IF(Report!B54&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B54,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B54&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B54,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D54" t="str">
-        <f>IF(Report!B54&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B54,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B54&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B54,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E54" t="str">
-        <f>IF(Report!B54&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B54,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B54&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B54,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F54" t="str">
-        <f>IF(Report!B54&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B54,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B54&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B54,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6734,23 +6639,23 @@
         <v>9</v>
       </c>
       <c r="B55" t="str" cm="1">
-        <f t="array" ref="B55">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M51:M50050),1),-1),A55),"")</f>
+        <f t="array" ref="B55">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A55),"")</f>
         <v/>
       </c>
       <c r="C55" t="str">
-        <f>IF(Report!B55&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B55,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B55&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B55,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D55" t="str">
-        <f>IF(Report!B55&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B55,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B55&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B55,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E55" t="str">
-        <f>IF(Report!B55&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B55,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B55&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B55,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F55" t="str">
-        <f>IF(Report!B55&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B55,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B55&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B55,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6759,23 +6664,23 @@
         <v>10</v>
       </c>
       <c r="B56" t="str" cm="1">
-        <f t="array" ref="B56">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M52:M50051),1),-1),A56),"")</f>
+        <f t="array" ref="B56">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A56),"")</f>
         <v/>
       </c>
       <c r="C56" t="str">
-        <f>IF(Report!B56&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B56,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B56&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B56,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D56" t="str">
-        <f>IF(Report!B56&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B56,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B56&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B56,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E56" t="str">
-        <f>IF(Report!B56&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B56,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B56&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B56,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F56" t="str">
-        <f>IF(Report!B56&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B56,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B56&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B56,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6784,23 +6689,23 @@
         <v>11</v>
       </c>
       <c r="B57" t="str" cm="1">
-        <f t="array" ref="B57">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M53:M50052),1),-1),A57),"")</f>
+        <f t="array" ref="B57">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A57),"")</f>
         <v/>
       </c>
       <c r="C57" t="str">
-        <f>IF(Report!B57&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B57,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B57&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B57,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D57" t="str">
-        <f>IF(Report!B57&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B57,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B57&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B57,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E57" t="str">
-        <f>IF(Report!B57&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B57,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B57&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B57,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F57" t="str">
-        <f>IF(Report!B57&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B57,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B57&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B57,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6809,23 +6714,23 @@
         <v>12</v>
       </c>
       <c r="B58" t="str" cm="1">
-        <f t="array" ref="B58">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M54:M50053),1),-1),A58),"")</f>
+        <f t="array" ref="B58">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A58),"")</f>
         <v/>
       </c>
       <c r="C58" t="str">
-        <f>IF(Report!B58&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B58,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B58&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B58,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D58" t="str">
-        <f>IF(Report!B58&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B58,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B58&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B58,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E58" t="str">
-        <f>IF(Report!B58&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B58,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B58&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B58,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F58" t="str">
-        <f>IF(Report!B58&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B58,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B58&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B58,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6834,23 +6739,23 @@
         <v>13</v>
       </c>
       <c r="B59" t="str" cm="1">
-        <f t="array" ref="B59">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M55:M50054),1),-1),A59),"")</f>
+        <f t="array" ref="B59">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A59),"")</f>
         <v/>
       </c>
       <c r="C59" t="str">
-        <f>IF(Report!B59&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B59,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B59&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B59,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D59" t="str">
-        <f>IF(Report!B59&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B59,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B59&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B59,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E59" t="str">
-        <f>IF(Report!B59&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B59,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B59&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B59,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F59" t="str">
-        <f>IF(Report!B59&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B59,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B59&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B59,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6859,23 +6764,23 @@
         <v>14</v>
       </c>
       <c r="B60" t="str" cm="1">
-        <f t="array" ref="B60">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M56:M50055),1),-1),A60),"")</f>
+        <f t="array" ref="B60">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A60),"")</f>
         <v/>
       </c>
       <c r="C60" t="str">
-        <f>IF(Report!B60&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B60,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B60&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B60,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f>IF(Report!B60&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B60,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B60&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B60,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f>IF(Report!B60&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B60,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B60&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B60,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f>IF(Report!B60&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B60,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B60&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B60,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6884,23 +6789,23 @@
         <v>15</v>
       </c>
       <c r="B61" t="str" cm="1">
-        <f t="array" ref="B61">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!M57:M50056),1),-1),A61),"")</f>
+        <f t="array" ref="B61">IFERROR(INDEX(_xlfn.DROP(_xlfn.DROP(_xlfn.UNIQUE('Raw Data'!$P$1:$P$50000),1),-1),A61),"")</f>
         <v/>
       </c>
       <c r="C61" t="str">
-        <f>IF(Report!B61&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B61,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B61&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B61,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="D61" t="str">
-        <f>IF(Report!B61&lt;&gt;"", COUNTIFS('Raw Data'!$M:$M, Report!B61,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B61&lt;&gt;"", COUNTIFS('Raw Data'!$P:$P, Report!B61,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
       <c r="E61" t="str">
-        <f>IF(Report!B61&lt;&gt;"", SUMIFS('Raw Data'!D:D,'Raw Data'!$M:$M, Report!B61,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8), "")</f>
+        <f>IF(Report!B61&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B61,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8), "")</f>
         <v/>
       </c>
       <c r="F61" t="str">
-        <f>IF(Report!B61&lt;&gt;"", SUMIFS('Raw Data'!D:D, 'Raw Data'!$M:$M, Report!B61,'Raw Data'!$I:$I, "&gt;"&amp;Report!$I$8, 'Raw Data'!$I:$I, "&lt;="&amp;Report!$J$8, 'Raw Data'!H:H, "customer_accepted"), "")</f>
+        <f>IF(Report!B61&lt;&gt;"", SUMIFS('Raw Data'!$B:$B,'Raw Data'!$P:$P, Report!B61,'Raw Data'!$J:$J, "&gt;"&amp;Report!$I$8, 'Raw Data'!$J:$J, "&lt;="&amp;Report!$J$8, 'Raw Data'!$G:$G, "customer_accepted"), "")</f>
         <v/>
       </c>
     </row>
@@ -6909,54 +6814,34 @@
         <v>18</v>
       </c>
       <c r="C62" s="7">
-        <f>SUM(C53:C61)</f>
+        <f>SUM(C47:C61)</f>
         <v>0</v>
       </c>
       <c r="D62" s="7">
-        <f>SUM(D53:D61)</f>
+        <f t="shared" ref="D62:F62" si="6">SUM(D47:D61)</f>
         <v>0</v>
       </c>
-      <c r="E62" s="8">
-        <f t="shared" ref="E62:F62" si="2">SUM(E53:E61)</f>
+      <c r="E62" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F62" s="8">
-        <f t="shared" si="2"/>
+      <c r="F62" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:F19">
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:F40">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
+  <conditionalFormatting sqref="B26:F40">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48:F61">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:F40">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B40">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47:F47">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47">
+  <conditionalFormatting sqref="B47:F61">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>
